--- a/extensions/icdm2016/doc-Experiments/RecapExperiments.xlsx
+++ b/extensions/icdm2016/doc-Experiments/RecapExperiments.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22240" tabRatio="500"/>
+    <workbookView xWindow="-25600" yWindow="0" windowWidth="27320" windowHeight="14000" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CajaMar" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>2016-bs100</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>2016-bs5k</t>
+  </si>
+  <si>
+    <t>2016 -bs50K-var100</t>
   </si>
 </sst>
 </file>
@@ -343,8 +346,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -383,7 +392,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -401,6 +410,9 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -418,6 +430,9 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,7 +465,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
+              <c:f>CajaMar!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -464,7 +479,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$85</c:f>
+              <c:f>CajaMar!$J$2:$J$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="84"/>
@@ -730,7 +745,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>CajaMar!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -744,7 +759,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$85</c:f>
+              <c:f>CajaMar!$K$2:$K$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="84"/>
@@ -999,6 +1014,286 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>-10.5491300812397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CajaMar!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2016 -bs50K-var100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>CajaMar!$L$2:$L$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>-10.5295297990214</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10.5295297452378</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10.5265684034782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10.5291608719122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10.5272475085439</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-10.5249850565216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-10.5277631905843</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-10.5300247711471</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-10.5283503265045</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-10.5289016704537</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-10.5297574026765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-10.5284454991767</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-10.5295929873975</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-10.52914985808</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-10.5255152172029</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-10.5294779354348</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-10.5292535170353</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-10.5296518819665</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-10.5278162551683</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-10.5286805746159</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-10.5296704207434</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-10.5296542009474</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-10.5293287050621</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-10.5272470345327</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-10.5296960848091</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-10.5296691708443</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-10.5243099064213</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-10.5203635022738</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-10.5285900311772</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-10.5296321817144</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-10.5271564848567</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-10.5295447782768</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-10.529555128269</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-10.529539655469</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-10.529535217774</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-10.5290329539835</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-10.5295887231577</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-10.5285723104551</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-10.5295211059314</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-10.5294999817251</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-10.529516106207</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-10.5295828621045</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-10.5277700038646</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-10.5296941999365</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-10.5296497045668</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-10.5296066512804</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-10.5283836219489</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-10.5296719639713</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-10.5296341957985</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-10.5286142109481</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-10.529653313002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-10.5294707097859</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-10.5289360919585</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-10.5294514586903</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-10.5296099977802</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-10.5296028932878</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-10.5294236271733</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-10.5291109704603</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-10.5270229041668</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-10.5287315013182</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-10.5289628243953</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-10.5286651127254</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-10.5297269346253</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-10.5294528817493</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-10.5294376832723</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-10.5265130980491</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-10.5294955655476</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-10.5287402997003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-10.5289479936413</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-10.5297588710333</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-10.5293479417494</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-10.5295068972336</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-10.52594816526</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-10.5297469835051</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-10.5297691290718</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-10.5293876430523</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-10.5295024722024</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-10.5295985766354</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-10.5297418059198</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-10.528698078919</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-10.5273978866071</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-10.5297668824527</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-10.5294256348174</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-10.5290665593931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1015,8 +1310,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2118618408"/>
-        <c:axId val="-2115075336"/>
+        <c:axId val="2124051256"/>
+        <c:axId val="2123789048"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1026,7 +1321,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>CajaMar!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1035,12 +1330,22 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$85</c:f>
+              <c:f>CajaMar!$I$2:$I$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="84"/>
@@ -1311,11 +1616,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2103867256"/>
-        <c:axId val="-2103869048"/>
+        <c:axId val="2111528120"/>
+        <c:axId val="2073321944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2118618408"/>
+        <c:axId val="2124051256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1324,7 +1629,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115075336"/>
+        <c:crossAx val="2123789048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1332,7 +1637,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2115075336"/>
+        <c:axId val="2123789048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1343,14 +1648,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118618408"/>
+        <c:crossAx val="2124051256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2103869048"/>
+        <c:axId val="2073321944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="8.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -1358,12 +1664,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103867256"/>
+        <c:crossAx val="2111528120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2103867256"/>
+        <c:axId val="2111528120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1372,7 +1678,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103869048"/>
+        <c:crossAx val="2073321944"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1425,7 +1732,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>CajaMar!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1439,7 +1746,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$85</c:f>
+              <c:f>CajaMar!$F$2:$F$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="84"/>
@@ -1710,11 +2017,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2121625960"/>
-        <c:axId val="2081764584"/>
+        <c:axId val="2126034488"/>
+        <c:axId val="2126037496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2121625960"/>
+        <c:axId val="2126034488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1723,7 +2030,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081764584"/>
+        <c:crossAx val="2126037496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1731,7 +2038,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2081764584"/>
+        <c:axId val="2126037496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1742,7 +2049,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121625960"/>
+        <c:crossAx val="2126034488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1789,7 +2096,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>CajaMar!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1803,7 +2110,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$85</c:f>
+              <c:f>CajaMar!$B$2:$B$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="84"/>
@@ -2069,7 +2376,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>CajaMar!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2083,7 +2390,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$85</c:f>
+              <c:f>CajaMar!$C$2:$C$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="84"/>
@@ -2354,8 +2661,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2101409080"/>
-        <c:axId val="-2101399160"/>
+        <c:axId val="2126273512"/>
+        <c:axId val="2126268696"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2365,7 +2672,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>CajaMar!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2379,7 +2686,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$85</c:f>
+              <c:f>CajaMar!$D$2:$D$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="84"/>
@@ -2585,7 +2892,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>CajaMar!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2599,7 +2906,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$85</c:f>
+              <c:f>CajaMar!$E$2:$E$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="84"/>
@@ -2870,11 +3177,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2122725912"/>
-        <c:axId val="2121411304"/>
+        <c:axId val="2126339832"/>
+        <c:axId val="2126297448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2101409080"/>
+        <c:axId val="2126273512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2883,7 +3190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101399160"/>
+        <c:crossAx val="2126268696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2891,7 +3198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101399160"/>
+        <c:axId val="2126268696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2902,12 +3209,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101409080"/>
+        <c:crossAx val="2126273512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121411304"/>
+        <c:axId val="2126297448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2917,12 +3224,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122725912"/>
+        <c:crossAx val="2126339832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2122725912"/>
+        <c:axId val="2126339832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2931,7 +3238,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121411304"/>
+        <c:crossAx val="2126297448"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3372,10 +3680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q49" sqref="Q49"/>
+    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3383,9 +3691,10 @@
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>88</v>
       </c>
@@ -3410,8 +3719,11 @@
       <c r="K1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3442,8 +3754,11 @@
       <c r="K2">
         <v>-10.5489920573081</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>-10.5295297990214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3474,8 +3789,11 @@
       <c r="K3">
         <v>-10.548992006452201</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>-10.5295297452378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3506,8 +3824,11 @@
       <c r="K4">
         <v>-10.5455018065165</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>-10.526568403478199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3538,8 +3859,11 @@
       <c r="K5">
         <v>-10.549359467146701</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>-10.5291608719122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3570,8 +3894,11 @@
       <c r="K6">
         <v>-10.5469159807661</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>-10.527247508543899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3602,8 +3929,11 @@
       <c r="K7">
         <v>-10.5451240603277</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>-10.524985056521601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3634,8 +3964,11 @@
       <c r="K8">
         <v>-10.547904872731699</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>-10.527763190584301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3666,8 +3999,11 @@
       <c r="K9">
         <v>-10.5503750698941</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>-10.530024771147099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3698,8 +4034,11 @@
       <c r="K10">
         <v>-10.548677018392899</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>-10.5283503265045</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3730,8 +4069,11 @@
       <c r="K11">
         <v>-10.5491711967366</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>-10.528901670453701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3762,8 +4104,11 @@
       <c r="K12">
         <v>-10.5497866571895</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>-10.5297574026765</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3794,8 +4139,11 @@
       <c r="K13">
         <v>-10.548754145957901</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>-10.5284454991767</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3826,8 +4174,11 @@
       <c r="K14">
         <v>-10.5496915352531</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>-10.5295929873975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3858,8 +4209,11 @@
       <c r="K15">
         <v>-10.5493179963711</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>-10.52914985808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3890,8 +4244,11 @@
       <c r="K16">
         <v>-10.545120984655799</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>-10.5255152172029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3922,8 +4279,11 @@
       <c r="K17">
         <v>-10.5498915724264</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>-10.5294779354348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3954,8 +4314,11 @@
       <c r="K18">
         <v>-10.5493198926426</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>-10.529253517035301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3986,8 +4349,11 @@
       <c r="K19">
         <v>-10.5498391922343</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>-10.529651881966499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4018,8 +4384,11 @@
       <c r="K20">
         <v>-10.5479503377502</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>-10.5278162551683</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4050,8 +4419,11 @@
       <c r="K21">
         <v>-10.5488472611425</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>-10.528680574615899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4082,8 +4454,11 @@
       <c r="K22">
         <v>-10.5498650139755</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>-10.5296704207434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4114,8 +4489,11 @@
       <c r="K23">
         <v>-10.549761171918</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23">
+        <v>-10.5296542009474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4146,8 +4524,11 @@
       <c r="K24">
         <v>-10.549416427033499</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24">
+        <v>-10.529328705062101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4178,8 +4559,11 @@
       <c r="K25">
         <v>-10.5469152729888</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25">
+        <v>-10.527247034532699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4210,8 +4594,11 @@
       <c r="K26">
         <v>-10.550007560804101</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26">
+        <v>-10.5296960848091</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4242,8 +4629,11 @@
       <c r="K27">
         <v>-10.549978609437201</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27">
+        <v>-10.529669170844301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4274,8 +4664,11 @@
       <c r="K28">
         <v>-10.5428726255425</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28">
+        <v>-10.524309906421299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4306,8 +4699,11 @@
       <c r="K29">
         <v>-10.541064453519899</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29">
+        <v>-10.520363502273799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4338,8 +4734,11 @@
       <c r="K30">
         <v>-10.5489415062987</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30">
+        <v>-10.528590031177201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4370,8 +4769,11 @@
       <c r="K31">
         <v>-10.550167667582601</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31">
+        <v>-10.529632181714399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4402,8 +4804,11 @@
       <c r="K32">
         <v>-10.5470886337376</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32">
+        <v>-10.5271564848567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4434,8 +4839,11 @@
       <c r="K33">
         <v>-10.5500639380209</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33">
+        <v>-10.529544778276801</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4466,8 +4874,11 @@
       <c r="K34">
         <v>-10.5500083055534</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34">
+        <v>-10.529555128268999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4498,8 +4909,11 @@
       <c r="K35">
         <v>-10.550044010014</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35">
+        <v>-10.529539655469</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4530,8 +4944,11 @@
       <c r="K36">
         <v>-10.5500659911488</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36">
+        <v>-10.529535217774001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4562,8 +4979,11 @@
       <c r="K37">
         <v>-10.5496245226804</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37">
+        <v>-10.529032953983499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4594,8 +5014,11 @@
       <c r="K38">
         <v>-10.5501450312073</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38">
+        <v>-10.529588723157699</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4626,8 +5049,11 @@
       <c r="K39">
         <v>-10.548944309769499</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39">
+        <v>-10.5285723104551</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4658,8 +5084,11 @@
       <c r="K40">
         <v>-10.5500323296197</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40">
+        <v>-10.5295211059314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4690,8 +5119,11 @@
       <c r="K41">
         <v>-10.550116893758601</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41">
+        <v>-10.529499981725101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4722,8 +5154,11 @@
       <c r="K42">
         <v>-10.550035023487199</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42">
+        <v>-10.529516106207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4754,8 +5189,11 @@
       <c r="K43">
         <v>-10.549990125026101</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43">
+        <v>-10.529582862104499</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4786,8 +5224,11 @@
       <c r="K44">
         <v>-10.5479248069081</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44">
+        <v>-10.5277700038646</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4818,8 +5259,11 @@
       <c r="K45">
         <v>-10.549989087803599</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45">
+        <v>-10.5296941999365</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4850,8 +5294,11 @@
       <c r="K46">
         <v>-10.5499592316371</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46">
+        <v>-10.5296497045668</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4882,8 +5329,11 @@
       <c r="K47">
         <v>-10.5500323914211</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47">
+        <v>-10.5296066512804</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4914,8 +5364,11 @@
       <c r="K48">
         <v>-10.548747683110699</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48">
+        <v>-10.528383621948899</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4946,8 +5399,11 @@
       <c r="K49">
         <v>-10.5499778883938</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49">
+        <v>-10.5296719639713</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4978,8 +5434,11 @@
       <c r="K50">
         <v>-10.550069856947101</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50">
+        <v>-10.529634195798501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5010,8 +5469,11 @@
       <c r="K51">
         <v>-10.5490471493939</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51">
+        <v>-10.528614210948099</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5042,8 +5504,11 @@
       <c r="K52">
         <v>-10.549969809042199</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52">
+        <v>-10.529653313001999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5074,8 +5539,11 @@
       <c r="K53">
         <v>-10.5499264370406</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53">
+        <v>-10.529470709785899</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5106,8 +5574,11 @@
       <c r="K54">
         <v>-10.549160132445399</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54">
+        <v>-10.528936091958499</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5138,8 +5609,11 @@
       <c r="K55">
         <v>-10.5496824107981</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55">
+        <v>-10.5294514586903</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>54</v>
       </c>
@@ -5170,8 +5644,11 @@
       <c r="K56">
         <v>-10.549906651643299</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56">
+        <v>-10.5296099977802</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>55</v>
       </c>
@@ -5202,8 +5679,11 @@
       <c r="K57">
         <v>-10.549874261872001</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57">
+        <v>-10.5296028932878</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>56</v>
       </c>
@@ -5234,8 +5714,11 @@
       <c r="K58">
         <v>-10.549617135659901</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58">
+        <v>-10.529423627173299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>57</v>
       </c>
@@ -5266,8 +5749,11 @@
       <c r="K59">
         <v>-10.5492754592746</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59">
+        <v>-10.5291109704603</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>58</v>
       </c>
@@ -5298,8 +5784,11 @@
       <c r="K60">
         <v>-10.5473379132058</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60">
+        <v>-10.527022904166801</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>59</v>
       </c>
@@ -5330,8 +5819,11 @@
       <c r="K61">
         <v>-10.548919970724301</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61">
+        <v>-10.5287315013182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>60</v>
       </c>
@@ -5362,8 +5854,11 @@
       <c r="K62">
         <v>-10.5493141914524</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62">
+        <v>-10.5289628243953</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>61</v>
       </c>
@@ -5394,8 +5889,11 @@
       <c r="K63">
         <v>-10.5490593273237</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63">
+        <v>-10.528665112725401</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5426,8 +5924,11 @@
       <c r="K64">
         <v>-10.5499598296927</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="L64">
+        <v>-10.5297269346253</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>63</v>
       </c>
@@ -5458,8 +5959,11 @@
       <c r="K65">
         <v>-10.549790661672301</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="L65">
+        <v>-10.5294528817493</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>64</v>
       </c>
@@ -5487,8 +5991,11 @@
       <c r="K66">
         <v>-10.5497654775103</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="L66">
+        <v>-10.529437683272301</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>65</v>
       </c>
@@ -5516,8 +6023,11 @@
       <c r="K67">
         <v>-10.5458728763774</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="L67">
+        <v>-10.526513098049101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>66</v>
       </c>
@@ -5545,8 +6055,11 @@
       <c r="K68">
         <v>-10.549809573965801</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="L68">
+        <v>-10.529495565547601</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>67</v>
       </c>
@@ -5574,8 +6087,11 @@
       <c r="K69">
         <v>-10.549052043182099</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="L69">
+        <v>-10.528740299700299</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>68</v>
       </c>
@@ -5603,8 +6119,11 @@
       <c r="K70">
         <v>-10.5491684671596</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="L70">
+        <v>-10.5289479936413</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>69</v>
       </c>
@@ -5632,8 +6151,11 @@
       <c r="K71">
         <v>-10.5500463266512</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="L71">
+        <v>-10.5297588710333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72">
         <v>70</v>
       </c>
@@ -5661,8 +6183,11 @@
       <c r="K72">
         <v>-10.549708439626601</v>
       </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="L72">
+        <v>-10.5293479417494</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>71</v>
       </c>
@@ -5690,8 +6215,11 @@
       <c r="K73">
         <v>-10.549736404234899</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="L73">
+        <v>-10.529506897233601</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>72</v>
       </c>
@@ -5719,8 +6247,11 @@
       <c r="K74">
         <v>-10.546435478342399</v>
       </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="L74">
+        <v>-10.525948165260001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>73</v>
       </c>
@@ -5748,8 +6279,11 @@
       <c r="K75">
         <v>-10.5502019996154</v>
       </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="L75">
+        <v>-10.529746983505101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>74</v>
       </c>
@@ -5777,8 +6311,11 @@
       <c r="K76">
         <v>-10.5500367624134</v>
       </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="L76">
+        <v>-10.5297691290718</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>75</v>
       </c>
@@ -5806,8 +6343,11 @@
       <c r="K77">
         <v>-10.5498730994537</v>
       </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="L77">
+        <v>-10.529387643052299</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>76</v>
       </c>
@@ -5835,8 +6375,11 @@
       <c r="K78">
         <v>-10.549860160491599</v>
       </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="L78">
+        <v>-10.529502472202401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>77</v>
       </c>
@@ -5864,8 +6407,11 @@
       <c r="K79">
         <v>-10.5497674193722</v>
       </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="L79">
+        <v>-10.529598576635401</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>78</v>
       </c>
@@ -5893,8 +6439,11 @@
       <c r="K80">
         <v>-10.5500902564998</v>
       </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="L80">
+        <v>-10.5297418059198</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5922,8 +6471,11 @@
       <c r="K81">
         <v>-10.549027453208099</v>
       </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="L81">
+        <v>-10.528698078919</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82">
         <v>80</v>
       </c>
@@ -5951,8 +6503,11 @@
       <c r="K82">
         <v>-10.5474055372671</v>
       </c>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="L82">
+        <v>-10.527397886607099</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5980,8 +6535,11 @@
       <c r="K83">
         <v>-10.550129742798401</v>
       </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="L83">
+        <v>-10.5297668824527</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84">
         <v>82</v>
       </c>
@@ -6009,8 +6567,11 @@
       <c r="K84">
         <v>-10.549815166701601</v>
       </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="L84">
+        <v>-10.5294256348174</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85">
         <v>83</v>
       </c>
@@ -6037,6 +6598,9 @@
       </c>
       <c r="K85">
         <v>-10.549130081239699</v>
+      </c>
+      <c r="L85">
+        <v>-10.529066559393099</v>
       </c>
     </row>
   </sheetData>

--- a/extensions/icdm2016/doc-Experiments/RecapExperiments.xlsx
+++ b/extensions/icdm2016/doc-Experiments/RecapExperiments.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="0" windowWidth="27320" windowHeight="14000" tabRatio="500"/>
+    <workbookView xWindow="-25600" yWindow="0" windowWidth="27320" windowHeight="14000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CajaMar" sheetId="1" r:id="rId1"/>
+    <sheet name="VAR01" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
   <si>
     <t>2016-bs100</t>
   </si>
@@ -298,6 +299,27 @@
   </si>
   <si>
     <t>2016 -bs50K-var100</t>
+  </si>
+  <si>
+    <t>realMean_c0</t>
+  </si>
+  <si>
+    <t>learntMean_c0</t>
+  </si>
+  <si>
+    <t>realMean_c1</t>
+  </si>
+  <si>
+    <t>learntMean_c1</t>
+  </si>
+  <si>
+    <t>meanH</t>
+  </si>
+  <si>
+    <t>Window size 100</t>
+  </si>
+  <si>
+    <t>Window size 1000</t>
   </si>
 </sst>
 </file>
@@ -346,7 +368,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -388,11 +410,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -413,6 +440,7 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -433,6 +461,7 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3263,6 +3292,1398 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR01'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>realMean_c0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01'!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>58371.9364778383</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58632.4775525353</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57434.134096443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57897.4712765675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58323.0645707848</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58771.8698934133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59044.9984139311</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59363.5326881757</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59052.4075783801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59311.1983625028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59516.3155590386</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59752.1073129386</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59953.0550646197</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60088.1459457886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59808.7798144426</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>59992.0961363341</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60185.7450038501</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60354.1163627501</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60504.6182548862</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60647.2460622065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR01'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>learntMean_c0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01'!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>39479.7279197339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48822.5301810437</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48248.5955955802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52352.53659223</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54583.8327576876</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56221.7927385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56969.0199981099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57880.0448177789</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56103.9155795609</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57437.9010455101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58240.3320277045</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59092.3167764613</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59637.5006550118</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59847.2653822576</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57876.5820386284</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58983.7551721785</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59925.770196199</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60553.844698029</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>61002.0718450927</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61377.888397683</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2110204472"/>
+        <c:axId val="-2141667336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2110204472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2141667336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2141667336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2110204472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR01'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>realMean_c1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01'!$C$3:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>76836.3954505686</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76351.3634331694</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75564.0955256656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79608.99437851339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83451.4538343819</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87653.4194635585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91595.09792142249</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95288.2854436375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97178.729157278</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100442.56620784</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102984.150171645</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105194.777652594</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>108736.553572516</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112174.257425742</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>113405.216317711</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>115859.53726513</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>117797.302857142</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>119690.042619139</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>121133.374308543</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>122620.029050367</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR01'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>learntMean_c1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01'!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>195988.036349729</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>195990.989752459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195988.092283086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195994.283361622</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>195998.641944242</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>196002.554692902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>196004.839076042</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>196007.808968012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>196003.660646463</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>196008.215960754</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>196011.348649587</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>196014.755075036</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>196017.25432917</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>196018.608427878</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>196012.527045716</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>196017.088221838</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>196021.118323578</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>196024.039448333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>196026.301519179</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>196028.28752524</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2125645416"/>
+        <c:axId val="2125639656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2125645416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2125639656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2125639656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2125645416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR01'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meanH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01'!$E$3:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>13.9545571443096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.5748332600799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.9114314839983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.1373430951487</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.5925449889447</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.1033180330585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.8159565644017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.445633673574</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.9481337588558</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.3835365563732</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.9943996457867</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.5714585465968</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.2620357981649</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.0940710666718</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.8374129087554</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.2755937896281</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.77924303328439</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.41901821841351</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.14000995270174</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.895220776561571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2127051976"/>
+        <c:axId val="2126859640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2127051976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2126859640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2126859640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2127051976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR01'!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>realMean_c0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01'!$A$26:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>58371.9364778383</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58632.4775525353</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57434.134096443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57897.4712765675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58323.0645707848</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58771.8698934133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59044.9984139311</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59363.5326881757</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59052.4075783801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59311.1983625028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59516.3155590386</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59752.1073129386</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59953.0550646197</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60088.1459457886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59808.7798144426</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>59992.0961363341</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60185.7450038501</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60354.1163627501</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60504.6182548862</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60647.2460622065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR01'!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>learntMean_c0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01'!$B$26:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>35472.6338299442</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46891.909015302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46781.641359458</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51679.0816661208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54165.678055018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55913.8035640944</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56690.1072584419</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57611.8235335768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55884.8927492505</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57180.9061050337</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57965.1748061819</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58804.7200898512</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59246.6796659658</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59385.2101406394</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57501.1519017676</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58563.0930704615</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59491.4345791437</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60113.761717786</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60570.4921872887</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60942.7309156018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2141509672"/>
+        <c:axId val="-2141630360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2141509672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2141630360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2141630360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2141509672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR01'!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>realMean_c1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01'!$C$26:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>76836.3954505686</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76351.3634331694</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75564.0955256656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79608.99437851339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83451.4538343819</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87653.4194635585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91595.09792142249</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95288.2854436375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97178.729157278</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100442.56620784</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102984.150171645</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105194.777652594</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>108736.553572516</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112174.257425742</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>113405.216317711</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>115859.53726513</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>117797.302857142</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>119690.042619139</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>121133.374308543</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>122620.029050367</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR01'!$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>learntMean_c1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01'!$D$26:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>44968.6975982229</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59664.6144134571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62469.9635180786</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73464.1236149361</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80120.78650117179</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85816.9238296359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90802.5097001127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95017.3040142183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97404.8609030494</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100861.251038173</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>103396.494815968</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105460.137963981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>109149.992737752</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112321.013735801</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>114509.091171643</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>115873.638481811</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>116714.037089879</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>117656.806067122</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>118317.703158651</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>119009.154407696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2121343224"/>
+        <c:axId val="2121344632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2121343224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121344632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2121344632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121343224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR01'!$E$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meanH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01'!$E$26:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>16.2521065819409</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.1446648453178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.3397373173395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.2147463340334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.5422990961546</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.0016781511156</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.7144552581047</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.3614266819324</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.8664160653228</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.346090668887</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.9924747667863</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.6023780636563</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.386470849114</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.2947603294558</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.0152620533765</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.5019311749676</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.0330375794203</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.6966136697067</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.4281292991503</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.1987998575596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2129465512"/>
+        <c:axId val="2127381672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2129465512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2127381672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2127381672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2129465512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3350,6 +4771,191 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3682,7 +5288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
+    <sheetView topLeftCell="G8" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -6613,4 +8219,762 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:E45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>58371.936477838302</v>
+      </c>
+      <c r="B3">
+        <v>39479.727919733901</v>
+      </c>
+      <c r="C3">
+        <v>76836.395450568598</v>
+      </c>
+      <c r="D3">
+        <v>195988.03634972899</v>
+      </c>
+      <c r="E3">
+        <v>13.9545571443096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>58632.477552535303</v>
+      </c>
+      <c r="B4">
+        <v>48822.530181043701</v>
+      </c>
+      <c r="C4">
+        <v>76351.363433169405</v>
+      </c>
+      <c r="D4">
+        <v>195990.98975245899</v>
+      </c>
+      <c r="E4">
+        <v>13.574833260079901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>57434.134096442998</v>
+      </c>
+      <c r="B5">
+        <v>48248.595595580198</v>
+      </c>
+      <c r="C5">
+        <v>75564.095525665602</v>
+      </c>
+      <c r="D5">
+        <v>195988.09228308601</v>
+      </c>
+      <c r="E5">
+        <v>13.9114314839983</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>57897.471276567499</v>
+      </c>
+      <c r="B6">
+        <v>52352.536592229997</v>
+      </c>
+      <c r="C6">
+        <v>79608.994378513395</v>
+      </c>
+      <c r="D6">
+        <v>195994.28336162199</v>
+      </c>
+      <c r="E6">
+        <v>13.137343095148699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>58323.064570784802</v>
+      </c>
+      <c r="B7">
+        <v>54583.832757687604</v>
+      </c>
+      <c r="C7">
+        <v>83451.4538343819</v>
+      </c>
+      <c r="D7">
+        <v>195998.641944242</v>
+      </c>
+      <c r="E7">
+        <v>12.592544988944701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>58771.869893413299</v>
+      </c>
+      <c r="B8">
+        <v>56221.7927385</v>
+      </c>
+      <c r="C8">
+        <v>87653.419463558501</v>
+      </c>
+      <c r="D8">
+        <v>196002.55469290199</v>
+      </c>
+      <c r="E8">
+        <v>12.1033180330585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>59044.998413931098</v>
+      </c>
+      <c r="B9">
+        <v>56969.019998109899</v>
+      </c>
+      <c r="C9">
+        <v>91595.097921422494</v>
+      </c>
+      <c r="D9">
+        <v>196004.839076042</v>
+      </c>
+      <c r="E9">
+        <v>11.8159565644017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>59363.532688175699</v>
+      </c>
+      <c r="B10">
+        <v>57880.0448177789</v>
+      </c>
+      <c r="C10">
+        <v>95288.285443637506</v>
+      </c>
+      <c r="D10">
+        <v>196007.80896801199</v>
+      </c>
+      <c r="E10">
+        <v>11.445633673573999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>59052.407578380102</v>
+      </c>
+      <c r="B11">
+        <v>56103.915579560897</v>
+      </c>
+      <c r="C11">
+        <v>97178.729157277994</v>
+      </c>
+      <c r="D11">
+        <v>196003.66064646299</v>
+      </c>
+      <c r="E11">
+        <v>11.9481337588558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>59311.198362502801</v>
+      </c>
+      <c r="B12">
+        <v>57437.901045510102</v>
+      </c>
+      <c r="C12">
+        <v>100442.56620784001</v>
+      </c>
+      <c r="D12">
+        <v>196008.21596075399</v>
+      </c>
+      <c r="E12">
+        <v>11.383536556373199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>59516.315559038601</v>
+      </c>
+      <c r="B13">
+        <v>58240.332027704499</v>
+      </c>
+      <c r="C13">
+        <v>102984.150171645</v>
+      </c>
+      <c r="D13">
+        <v>196011.34864958699</v>
+      </c>
+      <c r="E13">
+        <v>10.9943996457867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>59752.107312938599</v>
+      </c>
+      <c r="B14">
+        <v>59092.316776461303</v>
+      </c>
+      <c r="C14">
+        <v>105194.777652594</v>
+      </c>
+      <c r="D14">
+        <v>196014.755075036</v>
+      </c>
+      <c r="E14">
+        <v>10.5714585465968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>59953.055064619701</v>
+      </c>
+      <c r="B15">
+        <v>59637.500655011798</v>
+      </c>
+      <c r="C15">
+        <v>108736.553572516</v>
+      </c>
+      <c r="D15">
+        <v>196017.25432917001</v>
+      </c>
+      <c r="E15">
+        <v>10.2620357981649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>60088.145945788601</v>
+      </c>
+      <c r="B16">
+        <v>59847.265382257603</v>
+      </c>
+      <c r="C16">
+        <v>112174.25742574201</v>
+      </c>
+      <c r="D16">
+        <v>196018.608427878</v>
+      </c>
+      <c r="E16">
+        <v>10.0940710666718</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>59808.779814442598</v>
+      </c>
+      <c r="B17">
+        <v>57876.582038628403</v>
+      </c>
+      <c r="C17">
+        <v>113405.21631771101</v>
+      </c>
+      <c r="D17">
+        <v>196012.52704571601</v>
+      </c>
+      <c r="E17">
+        <v>10.8374129087554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>59992.096136334098</v>
+      </c>
+      <c r="B18">
+        <v>58983.755172178498</v>
+      </c>
+      <c r="C18">
+        <v>115859.53726513</v>
+      </c>
+      <c r="D18">
+        <v>196017.088221838</v>
+      </c>
+      <c r="E18">
+        <v>10.2755937896281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>60185.745003850097</v>
+      </c>
+      <c r="B19">
+        <v>59925.770196199002</v>
+      </c>
+      <c r="C19">
+        <v>117797.302857142</v>
+      </c>
+      <c r="D19">
+        <v>196021.118323578</v>
+      </c>
+      <c r="E19">
+        <v>9.7792430332843896</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>60354.116362750101</v>
+      </c>
+      <c r="B20">
+        <v>60553.844698029003</v>
+      </c>
+      <c r="C20">
+        <v>119690.042619139</v>
+      </c>
+      <c r="D20">
+        <v>196024.039448333</v>
+      </c>
+      <c r="E20">
+        <v>9.4190182184135107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>60504.618254886198</v>
+      </c>
+      <c r="B21">
+        <v>61002.071845092702</v>
+      </c>
+      <c r="C21">
+        <v>121133.374308543</v>
+      </c>
+      <c r="D21">
+        <v>196026.30151917899</v>
+      </c>
+      <c r="E21">
+        <v>9.1400099527017407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>60647.246062206497</v>
+      </c>
+      <c r="B22">
+        <v>61377.888397682997</v>
+      </c>
+      <c r="C22">
+        <v>122620.029050367</v>
+      </c>
+      <c r="D22">
+        <v>196028.28752524001</v>
+      </c>
+      <c r="E22">
+        <v>8.8952207765615707</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>58371.936477838302</v>
+      </c>
+      <c r="B26">
+        <v>35472.6338299442</v>
+      </c>
+      <c r="C26">
+        <v>76836.395450568598</v>
+      </c>
+      <c r="D26">
+        <v>44968.697598222898</v>
+      </c>
+      <c r="E26">
+        <v>16.2521065819409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>58632.477552535303</v>
+      </c>
+      <c r="B27">
+        <v>46891.909015302001</v>
+      </c>
+      <c r="C27">
+        <v>76351.363433169405</v>
+      </c>
+      <c r="D27">
+        <v>59664.6144134571</v>
+      </c>
+      <c r="E27">
+        <v>15.1446648453178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>57434.134096442998</v>
+      </c>
+      <c r="B28">
+        <v>46781.641359458001</v>
+      </c>
+      <c r="C28">
+        <v>75564.095525665602</v>
+      </c>
+      <c r="D28">
+        <v>62469.963518078599</v>
+      </c>
+      <c r="E28">
+        <v>15.3397373173395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>57897.471276567499</v>
+      </c>
+      <c r="B29">
+        <v>51679.081666120801</v>
+      </c>
+      <c r="C29">
+        <v>79608.994378513395</v>
+      </c>
+      <c r="D29">
+        <v>73464.123614936107</v>
+      </c>
+      <c r="E29">
+        <v>14.2147463340334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>58323.064570784802</v>
+      </c>
+      <c r="B30">
+        <v>54165.678055017997</v>
+      </c>
+      <c r="C30">
+        <v>83451.4538343819</v>
+      </c>
+      <c r="D30">
+        <v>80120.786501171795</v>
+      </c>
+      <c r="E30">
+        <v>13.542299096154601</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>58771.869893413299</v>
+      </c>
+      <c r="B31">
+        <v>55913.8035640944</v>
+      </c>
+      <c r="C31">
+        <v>87653.419463558501</v>
+      </c>
+      <c r="D31">
+        <v>85816.923829635896</v>
+      </c>
+      <c r="E31">
+        <v>13.0016781511156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>59044.998413931098</v>
+      </c>
+      <c r="B32">
+        <v>56690.107258441902</v>
+      </c>
+      <c r="C32">
+        <v>91595.097921422494</v>
+      </c>
+      <c r="D32">
+        <v>90802.5097001127</v>
+      </c>
+      <c r="E32">
+        <v>12.714455258104699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>59363.532688175699</v>
+      </c>
+      <c r="B33">
+        <v>57611.823533576797</v>
+      </c>
+      <c r="C33">
+        <v>95288.285443637506</v>
+      </c>
+      <c r="D33">
+        <v>95017.304014218302</v>
+      </c>
+      <c r="E33">
+        <v>12.3614266819324</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>59052.407578380102</v>
+      </c>
+      <c r="B34">
+        <v>55884.892749250503</v>
+      </c>
+      <c r="C34">
+        <v>97178.729157277994</v>
+      </c>
+      <c r="D34">
+        <v>97404.860903049397</v>
+      </c>
+      <c r="E34">
+        <v>12.866416065322801</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>59311.198362502801</v>
+      </c>
+      <c r="B35">
+        <v>57180.906105033697</v>
+      </c>
+      <c r="C35">
+        <v>100442.56620784001</v>
+      </c>
+      <c r="D35">
+        <v>100861.251038173</v>
+      </c>
+      <c r="E35">
+        <v>12.346090668886999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>59516.315559038601</v>
+      </c>
+      <c r="B36">
+        <v>57965.174806181902</v>
+      </c>
+      <c r="C36">
+        <v>102984.150171645</v>
+      </c>
+      <c r="D36">
+        <v>103396.49481596801</v>
+      </c>
+      <c r="E36">
+        <v>11.9924747667863</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>59752.107312938599</v>
+      </c>
+      <c r="B37">
+        <v>58804.720089851202</v>
+      </c>
+      <c r="C37">
+        <v>105194.777652594</v>
+      </c>
+      <c r="D37">
+        <v>105460.137963981</v>
+      </c>
+      <c r="E37">
+        <v>11.6023780636563</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>59953.055064619701</v>
+      </c>
+      <c r="B38">
+        <v>59246.679665965799</v>
+      </c>
+      <c r="C38">
+        <v>108736.553572516</v>
+      </c>
+      <c r="D38">
+        <v>109149.99273775201</v>
+      </c>
+      <c r="E38">
+        <v>11.386470849114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>60088.145945788601</v>
+      </c>
+      <c r="B39">
+        <v>59385.210140639399</v>
+      </c>
+      <c r="C39">
+        <v>112174.25742574201</v>
+      </c>
+      <c r="D39">
+        <v>112321.013735801</v>
+      </c>
+      <c r="E39">
+        <v>11.2947603294558</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>59808.779814442598</v>
+      </c>
+      <c r="B40">
+        <v>57501.151901767596</v>
+      </c>
+      <c r="C40">
+        <v>113405.21631771101</v>
+      </c>
+      <c r="D40">
+        <v>114509.091171643</v>
+      </c>
+      <c r="E40">
+        <v>12.0152620533765</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>59992.096136334098</v>
+      </c>
+      <c r="B41">
+        <v>58563.093070461502</v>
+      </c>
+      <c r="C41">
+        <v>115859.53726513</v>
+      </c>
+      <c r="D41">
+        <v>115873.63848181099</v>
+      </c>
+      <c r="E41">
+        <v>11.5019311749676</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>60185.745003850097</v>
+      </c>
+      <c r="B42">
+        <v>59491.434579143701</v>
+      </c>
+      <c r="C42">
+        <v>117797.302857142</v>
+      </c>
+      <c r="D42">
+        <v>116714.037089879</v>
+      </c>
+      <c r="E42">
+        <v>11.0330375794203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>60354.116362750101</v>
+      </c>
+      <c r="B43">
+        <v>60113.761717786001</v>
+      </c>
+      <c r="C43">
+        <v>119690.042619139</v>
+      </c>
+      <c r="D43">
+        <v>117656.806067122</v>
+      </c>
+      <c r="E43">
+        <v>10.6966136697067</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>60504.618254886198</v>
+      </c>
+      <c r="B44">
+        <v>60570.492187288699</v>
+      </c>
+      <c r="C44">
+        <v>121133.374308543</v>
+      </c>
+      <c r="D44">
+        <v>118317.703158651</v>
+      </c>
+      <c r="E44">
+        <v>10.428129299150299</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>60647.246062206497</v>
+      </c>
+      <c r="B45">
+        <v>60942.730915601802</v>
+      </c>
+      <c r="C45">
+        <v>122620.029050367</v>
+      </c>
+      <c r="D45">
+        <v>119009.154407696</v>
+      </c>
+      <c r="E45">
+        <v>10.1987998575596</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A24:E24"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/extensions/icdm2016/doc-Experiments/RecapExperiments.xlsx
+++ b/extensions/icdm2016/doc-Experiments/RecapExperiments.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="0" windowWidth="27320" windowHeight="14000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-25160" yWindow="0" windowWidth="27320" windowHeight="14000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CajaMar" sheetId="1" r:id="rId1"/>
-    <sheet name="VAR01" sheetId="3" r:id="rId2"/>
+    <sheet name="VAR01-var1e100" sheetId="3" r:id="rId2"/>
+    <sheet name="VAR01-var1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
   <si>
     <t>2016-bs100</t>
   </si>
@@ -1732,6 +1733,1398 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR01-var1'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>realMean_c0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01-var1'!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>58371.9364778383</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58632.4775525353</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57434.134096443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57897.4712765675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58323.0645707848</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58771.8698934133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59044.9984139311</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59363.5326881757</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59052.4075783801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59311.1983625028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59516.3155590386</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59752.1073129386</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59953.0550646197</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60088.1459457886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59808.7798144426</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>59992.0961363341</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60185.7450038501</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60354.1163627501</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60504.6182548862</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60647.2460622065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR01-var1'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>learntMean_c0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01-var1'!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.92627043547087</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.32023445123761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.01706880515186</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.697862261683751</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.4200589946985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.2759545551717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.1742574401342</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.1621343748142</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.420621578159</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.6277846616029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.8968167774719</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.3666342213181</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.8874626057912</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41.4520798306207</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45.3910060430651</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49.3451522829393</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53.3951264181324</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57.6983871022685</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>62.1795811174801</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66.8794106837971</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2121321448"/>
+        <c:axId val="-2139319480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2121321448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2139319480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2139319480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121321448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR01-var1'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>realMean_c1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01-var1'!$C$3:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>76836.3954505686</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76351.3634331694</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75564.0955256656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79608.99437851339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83451.4538343819</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87653.4194635585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91595.09792142249</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95288.2854436375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97178.729157278</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100442.56620784</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102984.150171645</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105194.777652594</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>108736.553572516</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112174.257425742</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>113405.216317711</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>115859.53726513</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>117797.302857142</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>119690.042619139</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>121133.374308543</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>122620.029050367</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR01-var1'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>learntMean_c1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01-var1'!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.123904374364694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.271976766670501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46547411266136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.636108132729801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.781116807967592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.939339130393021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.09384611210449</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.24033639163669</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.40668730116442</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.56608794818184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.71594584846476</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.87914445338983</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.05420363935581</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.21306504032643</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.38055333410932</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.52676105952179</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.66169947886676</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.81211399204293</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.95044930231019</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.08868197457224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2139528520"/>
+        <c:axId val="-2139543000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2139528520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2139543000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2139543000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2139528520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR01-var1'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meanH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01-var1'!$E$3:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>12.6171813949175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.6231100252224</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.6359418074839</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.6557085641032</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.6834468739671</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.7212913439373</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.7691409336179</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.8285845376442</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.9050132625256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.9917826943869</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.0916348385833</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.2095178618986</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.3407518376151</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.4845187372158</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.6547079408116</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.8359618224763</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.0310479855886</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.2472343082628</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.4803362892313</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.7319054301708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2128395768"/>
+        <c:axId val="-2104583800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2128395768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2104583800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2104583800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2128395768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR01-var1'!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>realMean_c0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01-var1'!$A$26:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>58371.9364778383</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58632.4775525353</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57434.134096443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57897.4712765675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58323.0645707848</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58771.8698934133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59044.9984139311</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59363.5326881757</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59052.4075783801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59311.1983625028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59516.3155590386</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59752.1073129386</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59953.0550646197</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60088.1459457886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59808.7798144426</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>59992.0961363341</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60185.7450038501</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60354.1163627501</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60504.6182548862</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60647.2460622065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR01-var1'!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>learntMean_c0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01-var1'!$B$26:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.92943809722798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3130601514617</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.00373779339924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.67894305568879</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.3975969848436</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.2499290317774</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.1455040075102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.1310986101231</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.3860014480484</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.5900416433245</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.8570981880644</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.3241992572676</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.8434143957806</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41.4071846950887</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45.3415820560583</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49.2934010688952</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53.341856825592</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57.6445436098037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>62.1237076458415</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66.82137249108401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2143783000"/>
+        <c:axId val="2073697000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2143783000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2073697000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2073697000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2143783000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR01-var1'!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>realMean_c1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01-var1'!$C$26:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>76836.3954505686</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76351.3634331694</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75564.0955256656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79608.99437851339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83451.4538343819</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87653.4194635585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91595.09792142249</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95288.2854436375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97178.729157278</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100442.56620784</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102984.150171645</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105194.777652594</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>108736.553572516</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112174.257425742</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>113405.216317711</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>115859.53726513</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>117797.302857142</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>119690.042619139</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>121133.374308543</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>122620.029050367</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR01-var1'!$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>learntMean_c1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01-var1'!$D$26:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.11501297200256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.262054903921544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.455264339211357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.624779722429832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.769309374221158</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.927104836035391</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.08131004072176</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.22754771566756</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.39377940870687</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.55295578416317</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.70263476619007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.86569748969329</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.04049451997296</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.19921961599482</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.36640786296067</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.51234952319918</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.64712703370352</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7971430820655</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.93508977618257</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.07292362984796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2139386936"/>
+        <c:axId val="-2139383656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2139386936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2139383656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2139383656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2139386936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR01-var1'!$E$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meanH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01-var1'!$E$26:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>12.6172357876381</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.6232129750563</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.6360876243457</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.655879971479</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.6836439180836</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.7214996786567</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.7693575195711</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.8288074762509</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.9051960302129</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.9919204535984</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.0917464018962</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.209567916076</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.3407698897758</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.4845263425381</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.6545366836197</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.835703337263</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.0307348649372</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.2469086262423</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.4799252680995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.7314005104666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2139419016"/>
+        <c:axId val="-2139416072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2139419016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2139416072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2139416072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2139419016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -3317,7 +4710,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR01'!$A$2</c:f>
+              <c:f>'VAR01-var1e100'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3331,7 +4724,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR01'!$A$3:$A$22</c:f>
+              <c:f>'VAR01-var1e100'!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3405,7 +4798,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR01'!$B$2</c:f>
+              <c:f>'VAR01-var1e100'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3419,7 +4812,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR01'!$B$3:$B$22</c:f>
+              <c:f>'VAR01-var1e100'!$B$3:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3577,7 +4970,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR01'!$C$2</c:f>
+              <c:f>'VAR01-var1e100'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3591,7 +4984,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR01'!$C$3:$C$22</c:f>
+              <c:f>'VAR01-var1e100'!$C$3:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3665,7 +5058,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR01'!$D$2</c:f>
+              <c:f>'VAR01-var1e100'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3679,7 +5072,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR01'!$D$3:$D$22</c:f>
+              <c:f>'VAR01-var1e100'!$D$3:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3841,7 +5234,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR01'!$E$2</c:f>
+              <c:f>'VAR01-var1e100'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3855,7 +5248,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR01'!$E$3:$E$22</c:f>
+              <c:f>'VAR01-var1e100'!$E$3:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4013,7 +5406,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR01'!$A$25</c:f>
+              <c:f>'VAR01-var1e100'!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4027,7 +5420,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR01'!$A$26:$A$45</c:f>
+              <c:f>'VAR01-var1e100'!$A$26:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4101,7 +5494,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR01'!$B$25</c:f>
+              <c:f>'VAR01-var1e100'!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4115,7 +5508,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR01'!$B$26:$B$45</c:f>
+              <c:f>'VAR01-var1e100'!$B$26:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4273,7 +5666,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR01'!$C$25</c:f>
+              <c:f>'VAR01-var1e100'!$C$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4287,7 +5680,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR01'!$C$26:$C$45</c:f>
+              <c:f>'VAR01-var1e100'!$C$26:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4361,7 +5754,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR01'!$D$25</c:f>
+              <c:f>'VAR01-var1e100'!$D$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4375,7 +5768,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR01'!$D$26:$D$45</c:f>
+              <c:f>'VAR01-var1e100'!$D$26:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4537,7 +5930,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR01'!$E$25</c:f>
+              <c:f>'VAR01-var1e100'!$E$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4551,7 +5944,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR01'!$E$26:$E$45</c:f>
+              <c:f>'VAR01-var1e100'!$E$26:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4948,6 +6341,203 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="10" name="Chart 9"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8225,7 +9815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25:E45"/>
     </sheetView>
   </sheetViews>
@@ -8961,6 +10551,764 @@
       </c>
       <c r="E45">
         <v>10.1987998575596</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A24:E24"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>58371.936477838302</v>
+      </c>
+      <c r="B3">
+        <v>1.92627043547087</v>
+      </c>
+      <c r="C3">
+        <v>76836.395450568598</v>
+      </c>
+      <c r="D3">
+        <v>0.12390437436469399</v>
+      </c>
+      <c r="E3">
+        <v>12.6171813949175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>58632.477552535303</v>
+      </c>
+      <c r="B4">
+        <v>4.3202344512376101</v>
+      </c>
+      <c r="C4">
+        <v>76351.363433169405</v>
+      </c>
+      <c r="D4">
+        <v>0.27197676667050102</v>
+      </c>
+      <c r="E4">
+        <v>12.623110025222401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>57434.134096442998</v>
+      </c>
+      <c r="B5">
+        <v>7.0170688051518599</v>
+      </c>
+      <c r="C5">
+        <v>75564.095525665602</v>
+      </c>
+      <c r="D5">
+        <v>0.46547411266136002</v>
+      </c>
+      <c r="E5">
+        <v>12.635941807483899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>57897.471276567499</v>
+      </c>
+      <c r="B6">
+        <v>9.6978622616837509</v>
+      </c>
+      <c r="C6">
+        <v>79608.994378513395</v>
+      </c>
+      <c r="D6">
+        <v>0.63610813272980105</v>
+      </c>
+      <c r="E6">
+        <v>12.6557085641032</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>58323.064570784802</v>
+      </c>
+      <c r="B7">
+        <v>12.4200589946985</v>
+      </c>
+      <c r="C7">
+        <v>83451.4538343819</v>
+      </c>
+      <c r="D7">
+        <v>0.78111680796759198</v>
+      </c>
+      <c r="E7">
+        <v>12.6834468739671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>58771.869893413299</v>
+      </c>
+      <c r="B8">
+        <v>15.275954555171699</v>
+      </c>
+      <c r="C8">
+        <v>87653.419463558501</v>
+      </c>
+      <c r="D8">
+        <v>0.93933913039302097</v>
+      </c>
+      <c r="E8">
+        <v>12.721291343937301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>59044.998413931098</v>
+      </c>
+      <c r="B9">
+        <v>18.174257440134198</v>
+      </c>
+      <c r="C9">
+        <v>91595.097921422494</v>
+      </c>
+      <c r="D9">
+        <v>1.09384611210449</v>
+      </c>
+      <c r="E9">
+        <v>12.7691409336179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>59363.532688175699</v>
+      </c>
+      <c r="B10">
+        <v>21.162134374814201</v>
+      </c>
+      <c r="C10">
+        <v>95288.285443637506</v>
+      </c>
+      <c r="D10">
+        <v>1.2403363916366901</v>
+      </c>
+      <c r="E10">
+        <v>12.8285845376442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>59052.407578380102</v>
+      </c>
+      <c r="B11">
+        <v>24.420621578159</v>
+      </c>
+      <c r="C11">
+        <v>97178.729157277994</v>
+      </c>
+      <c r="D11">
+        <v>1.4066873011644201</v>
+      </c>
+      <c r="E11">
+        <v>12.9050132625256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>59311.198362502801</v>
+      </c>
+      <c r="B12">
+        <v>27.627784661602899</v>
+      </c>
+      <c r="C12">
+        <v>100442.56620784001</v>
+      </c>
+      <c r="D12">
+        <v>1.5660879481818399</v>
+      </c>
+      <c r="E12">
+        <v>12.991782694386901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>59516.315559038601</v>
+      </c>
+      <c r="B13">
+        <v>30.896816777471901</v>
+      </c>
+      <c r="C13">
+        <v>102984.150171645</v>
+      </c>
+      <c r="D13">
+        <v>1.7159458484647601</v>
+      </c>
+      <c r="E13">
+        <v>13.0916348385833</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>59752.107312938599</v>
+      </c>
+      <c r="B14">
+        <v>34.366634221318101</v>
+      </c>
+      <c r="C14">
+        <v>105194.777652594</v>
+      </c>
+      <c r="D14">
+        <v>1.87914445338983</v>
+      </c>
+      <c r="E14">
+        <v>13.2095178618986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>59953.055064619701</v>
+      </c>
+      <c r="B15">
+        <v>37.8874626057912</v>
+      </c>
+      <c r="C15">
+        <v>108736.553572516</v>
+      </c>
+      <c r="D15">
+        <v>2.0542036393558099</v>
+      </c>
+      <c r="E15">
+        <v>13.3407518376151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>60088.145945788601</v>
+      </c>
+      <c r="B16">
+        <v>41.452079830620697</v>
+      </c>
+      <c r="C16">
+        <v>112174.25742574201</v>
+      </c>
+      <c r="D16">
+        <v>2.21306504032643</v>
+      </c>
+      <c r="E16">
+        <v>13.484518737215801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>59808.779814442598</v>
+      </c>
+      <c r="B17">
+        <v>45.391006043065097</v>
+      </c>
+      <c r="C17">
+        <v>113405.21631771101</v>
+      </c>
+      <c r="D17">
+        <v>2.3805533341093201</v>
+      </c>
+      <c r="E17">
+        <v>13.654707940811599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>59992.096136334098</v>
+      </c>
+      <c r="B18">
+        <v>49.345152282939303</v>
+      </c>
+      <c r="C18">
+        <v>115859.53726513</v>
+      </c>
+      <c r="D18">
+        <v>2.5267610595217902</v>
+      </c>
+      <c r="E18">
+        <v>13.8359618224763</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>60185.745003850097</v>
+      </c>
+      <c r="B19">
+        <v>53.395126418132399</v>
+      </c>
+      <c r="C19">
+        <v>117797.302857142</v>
+      </c>
+      <c r="D19">
+        <v>2.6616994788667601</v>
+      </c>
+      <c r="E19">
+        <v>14.0310479855886</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>60354.116362750101</v>
+      </c>
+      <c r="B20">
+        <v>57.698387102268498</v>
+      </c>
+      <c r="C20">
+        <v>119690.042619139</v>
+      </c>
+      <c r="D20">
+        <v>2.8121139920429301</v>
+      </c>
+      <c r="E20">
+        <v>14.247234308262801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>60504.618254886198</v>
+      </c>
+      <c r="B21">
+        <v>62.179581117480097</v>
+      </c>
+      <c r="C21">
+        <v>121133.374308543</v>
+      </c>
+      <c r="D21">
+        <v>2.9504493023101901</v>
+      </c>
+      <c r="E21">
+        <v>14.4803362892313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>60647.246062206497</v>
+      </c>
+      <c r="B22">
+        <v>66.879410683797104</v>
+      </c>
+      <c r="C22">
+        <v>122620.029050367</v>
+      </c>
+      <c r="D22">
+        <v>3.08868197457224</v>
+      </c>
+      <c r="E22">
+        <v>14.7319054301708</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>58371.936477838302</v>
+      </c>
+      <c r="B26">
+        <v>1.9294380972279801</v>
+      </c>
+      <c r="C26">
+        <v>76836.395450568598</v>
+      </c>
+      <c r="D26">
+        <v>0.11501297200256</v>
+      </c>
+      <c r="E26">
+        <v>12.6172357876381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>58632.477552535303</v>
+      </c>
+      <c r="B27">
+        <v>4.3130601514617002</v>
+      </c>
+      <c r="C27">
+        <v>76351.363433169405</v>
+      </c>
+      <c r="D27">
+        <v>0.26205490392154401</v>
+      </c>
+      <c r="E27">
+        <v>12.623212975056299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>57434.134096442998</v>
+      </c>
+      <c r="B28">
+        <v>7.0037377933992397</v>
+      </c>
+      <c r="C28">
+        <v>75564.095525665602</v>
+      </c>
+      <c r="D28">
+        <v>0.45526433921135701</v>
+      </c>
+      <c r="E28">
+        <v>12.6360876243457</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>57897.471276567499</v>
+      </c>
+      <c r="B29">
+        <v>9.6789430556887908</v>
+      </c>
+      <c r="C29">
+        <v>79608.994378513395</v>
+      </c>
+      <c r="D29">
+        <v>0.62477972242983204</v>
+      </c>
+      <c r="E29">
+        <v>12.655879971478999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>58323.064570784802</v>
+      </c>
+      <c r="B30">
+        <v>12.397596984843601</v>
+      </c>
+      <c r="C30">
+        <v>83451.4538343819</v>
+      </c>
+      <c r="D30">
+        <v>0.76930937422115797</v>
+      </c>
+      <c r="E30">
+        <v>12.6836439180836</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>58771.869893413299</v>
+      </c>
+      <c r="B31">
+        <v>15.2499290317774</v>
+      </c>
+      <c r="C31">
+        <v>87653.419463558501</v>
+      </c>
+      <c r="D31">
+        <v>0.92710483603539096</v>
+      </c>
+      <c r="E31">
+        <v>12.7214996786567</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>59044.998413931098</v>
+      </c>
+      <c r="B32">
+        <v>18.145504007510201</v>
+      </c>
+      <c r="C32">
+        <v>91595.097921422494</v>
+      </c>
+      <c r="D32">
+        <v>1.08131004072176</v>
+      </c>
+      <c r="E32">
+        <v>12.7693575195711</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>59363.532688175699</v>
+      </c>
+      <c r="B33">
+        <v>21.1310986101231</v>
+      </c>
+      <c r="C33">
+        <v>95288.285443637506</v>
+      </c>
+      <c r="D33">
+        <v>1.22754771566756</v>
+      </c>
+      <c r="E33">
+        <v>12.828807476250899</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>59052.407578380102</v>
+      </c>
+      <c r="B34">
+        <v>24.3860014480484</v>
+      </c>
+      <c r="C34">
+        <v>97178.729157277994</v>
+      </c>
+      <c r="D34">
+        <v>1.39377940870687</v>
+      </c>
+      <c r="E34">
+        <v>12.905196030212901</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>59311.198362502801</v>
+      </c>
+      <c r="B35">
+        <v>27.590041643324501</v>
+      </c>
+      <c r="C35">
+        <v>100442.56620784001</v>
+      </c>
+      <c r="D35">
+        <v>1.55295578416317</v>
+      </c>
+      <c r="E35">
+        <v>12.9919204535984</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>59516.315559038601</v>
+      </c>
+      <c r="B36">
+        <v>30.857098188064398</v>
+      </c>
+      <c r="C36">
+        <v>102984.150171645</v>
+      </c>
+      <c r="D36">
+        <v>1.70263476619007</v>
+      </c>
+      <c r="E36">
+        <v>13.0917464018962</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>59752.107312938599</v>
+      </c>
+      <c r="B37">
+        <v>34.324199257267601</v>
+      </c>
+      <c r="C37">
+        <v>105194.777652594</v>
+      </c>
+      <c r="D37">
+        <v>1.8656974896932901</v>
+      </c>
+      <c r="E37">
+        <v>13.209567916076001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>59953.055064619701</v>
+      </c>
+      <c r="B38">
+        <v>37.843414395780599</v>
+      </c>
+      <c r="C38">
+        <v>108736.553572516</v>
+      </c>
+      <c r="D38">
+        <v>2.0404945199729601</v>
+      </c>
+      <c r="E38">
+        <v>13.3407698897758</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>60088.145945788601</v>
+      </c>
+      <c r="B39">
+        <v>41.407184695088702</v>
+      </c>
+      <c r="C39">
+        <v>112174.25742574201</v>
+      </c>
+      <c r="D39">
+        <v>2.1992196159948199</v>
+      </c>
+      <c r="E39">
+        <v>13.4845263425381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>59808.779814442598</v>
+      </c>
+      <c r="B40">
+        <v>45.3415820560583</v>
+      </c>
+      <c r="C40">
+        <v>113405.21631771101</v>
+      </c>
+      <c r="D40">
+        <v>2.3664078629606702</v>
+      </c>
+      <c r="E40">
+        <v>13.6545366836197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>59992.096136334098</v>
+      </c>
+      <c r="B41">
+        <v>49.2934010688952</v>
+      </c>
+      <c r="C41">
+        <v>115859.53726513</v>
+      </c>
+      <c r="D41">
+        <v>2.5123495231991799</v>
+      </c>
+      <c r="E41">
+        <v>13.835703337263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>60185.745003850097</v>
+      </c>
+      <c r="B42">
+        <v>53.341856825591996</v>
+      </c>
+      <c r="C42">
+        <v>117797.302857142</v>
+      </c>
+      <c r="D42">
+        <v>2.6471270337035202</v>
+      </c>
+      <c r="E42">
+        <v>14.0307348649372</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>60354.116362750101</v>
+      </c>
+      <c r="B43">
+        <v>57.644543609803698</v>
+      </c>
+      <c r="C43">
+        <v>119690.042619139</v>
+      </c>
+      <c r="D43">
+        <v>2.7971430820654999</v>
+      </c>
+      <c r="E43">
+        <v>14.2469086262423</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>60504.618254886198</v>
+      </c>
+      <c r="B44">
+        <v>62.123707645841499</v>
+      </c>
+      <c r="C44">
+        <v>121133.374308543</v>
+      </c>
+      <c r="D44">
+        <v>2.9350897761825698</v>
+      </c>
+      <c r="E44">
+        <v>14.4799252680995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>60647.246062206497</v>
+      </c>
+      <c r="B45">
+        <v>66.821372491084006</v>
+      </c>
+      <c r="C45">
+        <v>122620.029050367</v>
+      </c>
+      <c r="D45">
+        <v>3.0729236298479599</v>
+      </c>
+      <c r="E45">
+        <v>14.731400510466599</v>
       </c>
     </row>
   </sheetData>

--- a/extensions/icdm2016/doc-Experiments/RecapExperiments.xlsx
+++ b/extensions/icdm2016/doc-Experiments/RecapExperiments.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25160" yWindow="0" windowWidth="27320" windowHeight="14000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13840" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CajaMar" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
   <si>
     <t>2016-bs100</t>
   </si>
@@ -1340,8 +1340,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2124051256"/>
-        <c:axId val="2123789048"/>
+        <c:axId val="-2113730552"/>
+        <c:axId val="-2113727304"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1646,11 +1646,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2111528120"/>
-        <c:axId val="2073321944"/>
+        <c:axId val="-2113721336"/>
+        <c:axId val="-2113724328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2124051256"/>
+        <c:axId val="-2113730552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1659,7 +1659,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123789048"/>
+        <c:crossAx val="-2113727304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1667,7 +1667,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2123789048"/>
+        <c:axId val="-2113727304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1678,12 +1678,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124051256"/>
+        <c:crossAx val="-2113730552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2073321944"/>
+        <c:axId val="-2113724328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="8.0"/>
@@ -1694,12 +1694,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111528120"/>
+        <c:crossAx val="-2113721336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2111528120"/>
+        <c:axId val="-2113721336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1708,7 +1708,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073321944"/>
+        <c:crossAx val="-2113724328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1718,7 +1718,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1758,7 +1757,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR01-var1'!$A$2</c:f>
+              <c:f>'VAR01-var1e100'!$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1772,7 +1771,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR01-var1'!$A$3:$A$22</c:f>
+              <c:f>'VAR01-var1e100'!$A$49:$A$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1846,7 +1845,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR01-var1'!$B$2</c:f>
+              <c:f>'VAR01-var1e100'!$B$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1860,69 +1859,69 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR01-var1'!$B$3:$B$22</c:f>
+              <c:f>'VAR01-var1e100'!$B$49:$B$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.92627043547087</c:v>
+                  <c:v>58362.5317772191</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.32023445123761</c:v>
+                  <c:v>58739.0752476606</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.01706880515186</c:v>
+                  <c:v>56858.1535055379</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.697862261683751</c:v>
+                  <c:v>57851.6700138311</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.4200589946985</c:v>
+                  <c:v>58589.8476060733</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.2759545551717</c:v>
+                  <c:v>59299.527781249</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.1742574401342</c:v>
+                  <c:v>59663.8036163995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.1621343748142</c:v>
+                  <c:v>60126.121073328</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.420621578159</c:v>
+                  <c:v>59373.0086068332</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.6277846616029</c:v>
+                  <c:v>59824.3624068757</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.8968167774719</c:v>
+                  <c:v>60158.0883492662</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.3666342213181</c:v>
+                  <c:v>60550.7239971442</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.8874626057912</c:v>
+                  <c:v>60887.7948900096</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41.4520798306207</c:v>
+                  <c:v>61084.2879902351</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45.3910060430651</c:v>
+                  <c:v>60334.6715636578</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49.3451522829393</c:v>
+                  <c:v>60687.3336496347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>53.3951264181324</c:v>
+                  <c:v>61051.641784012</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>57.6983871022685</c:v>
+                  <c:v>61349.749048587</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>62.1795811174801</c:v>
+                  <c:v>61597.231091269</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>66.8794106837971</c:v>
+                  <c:v>61829.6244976991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1939,11 +1938,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2121321448"/>
-        <c:axId val="-2139319480"/>
+        <c:axId val="-2106637336"/>
+        <c:axId val="-2113440424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2121321448"/>
+        <c:axId val="-2106637336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1952,7 +1951,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139319480"/>
+        <c:crossAx val="-2113440424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1960,9 +1959,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2139319480"/>
+        <c:axId val="-2113440424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1971,7 +1971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121321448"/>
+        <c:crossAx val="-2106637336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2018,7 +2018,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR01-var1'!$C$2</c:f>
+              <c:f>'VAR01-var1e100'!$C$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2032,7 +2032,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR01-var1'!$C$3:$C$22</c:f>
+              <c:f>'VAR01-var1e100'!$C$49:$C$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2106,7 +2106,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR01-var1'!$D$2</c:f>
+              <c:f>'VAR01-var1e100'!$D$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2120,69 +2120,69 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR01-var1'!$D$3:$D$22</c:f>
+              <c:f>'VAR01-var1e100'!$D$49:$D$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.123904374364694</c:v>
+                  <c:v>76890.9010593698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.271976766670501</c:v>
+                  <c:v>76171.402715873</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46547411266136</c:v>
+                  <c:v>75106.7595256323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.636108132729801</c:v>
+                  <c:v>80506.5690834007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.781116807967592</c:v>
+                  <c:v>85000.9553768956</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.939339130393021</c:v>
+                  <c:v>89732.1308608261</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.09384611210449</c:v>
+                  <c:v>94242.7180716182</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.24033639163669</c:v>
+                  <c:v>98446.0954126487</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.40668730116442</c:v>
+                  <c:v>100167.97675627</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.56608794818184</c:v>
+                  <c:v>104059.451348751</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.71594584846476</c:v>
+                  <c:v>107156.748828396</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.87914445338983</c:v>
+                  <c:v>109909.44386268</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.05420363935581</c:v>
+                  <c:v>114454.545916365</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.21306504032643</c:v>
+                  <c:v>118687.979675418</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.38055333410932</c:v>
+                  <c:v>119234.669477307</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.52676105952179</c:v>
+                  <c:v>122210.693326734</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.66169947886676</c:v>
+                  <c:v>124588.121560201</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.81211399204293</c:v>
+                  <c:v>126852.636659975</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.95044930231019</c:v>
+                  <c:v>128589.666359404</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.08868197457224</c:v>
+                  <c:v>130489.850535861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2199,11 +2199,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2139528520"/>
-        <c:axId val="-2139543000"/>
+        <c:axId val="-2108255240"/>
+        <c:axId val="-2101512808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2139528520"/>
+        <c:axId val="-2108255240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2212,7 +2212,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139543000"/>
+        <c:crossAx val="-2101512808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2220,7 +2220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2139543000"/>
+        <c:axId val="-2101512808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2231,7 +2231,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139528520"/>
+        <c:crossAx val="-2108255240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2282,7 +2282,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR01-var1'!$E$2</c:f>
+              <c:f>'VAR01-var1e100'!$E$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2296,69 +2296,69 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR01-var1'!$E$3:$E$22</c:f>
+              <c:f>'VAR01-var1e100'!$E$49:$E$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>12.6171813949175</c:v>
+                  <c:v>12.3247526249295</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.6231100252224</c:v>
+                  <c:v>12.1891777937157</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.6359418074839</c:v>
+                  <c:v>12.14733549104</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.6557085641032</c:v>
+                  <c:v>12.0970684824364</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.6834468739671</c:v>
+                  <c:v>12.140166297901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.7212913439373</c:v>
+                  <c:v>12.3065628990367</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.7691409336179</c:v>
+                  <c:v>12.5601594059512</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.8285845376442</c:v>
+                  <c:v>12.912503690411</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.9050132625256</c:v>
+                  <c:v>12.9846464908938</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.9917826943869</c:v>
+                  <c:v>13.447903001202</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.0916348385833</c:v>
+                  <c:v>13.8679317860991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.2095178618986</c:v>
+                  <c:v>14.3050186710357</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.3407518376151</c:v>
+                  <c:v>15.0439360224616</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.4845187372158</c:v>
+                  <c:v>15.7398895934759</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.6547079408116</c:v>
+                  <c:v>15.6680276680859</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.8359618224763</c:v>
+                  <c:v>16.2459684260762</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.0310479855886</c:v>
+                  <c:v>16.7475653521409</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14.2472343082628</c:v>
+                  <c:v>17.2265944675981</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.4803362892313</c:v>
+                  <c:v>17.6096992098285</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.7319054301708</c:v>
+                  <c:v>18.026643498654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2375,11 +2375,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128395768"/>
-        <c:axId val="-2104583800"/>
+        <c:axId val="-2110348136"/>
+        <c:axId val="-2102753480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2128395768"/>
+        <c:axId val="-2110348136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2388,7 +2388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2104583800"/>
+        <c:crossAx val="-2102753480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2396,7 +2396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2104583800"/>
+        <c:axId val="-2102753480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2407,7 +2407,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128395768"/>
+        <c:crossAx val="-2110348136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2454,7 +2454,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR01-var1'!$A$25</c:f>
+              <c:f>'VAR01-var1'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2468,7 +2468,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR01-var1'!$A$26:$A$45</c:f>
+              <c:f>'VAR01-var1'!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2542,7 +2542,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR01-var1'!$B$25</c:f>
+              <c:f>'VAR01-var1'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2556,69 +2556,69 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR01-var1'!$B$26:$B$45</c:f>
+              <c:f>'VAR01-var1'!$B$3:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.92943809722798</c:v>
+                  <c:v>1.92627043547087</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3130601514617</c:v>
+                  <c:v>4.32023445123761</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.00373779339924</c:v>
+                  <c:v>7.01706880515186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.67894305568879</c:v>
+                  <c:v>9.697862261683751</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.3975969848436</c:v>
+                  <c:v>12.4200589946985</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.2499290317774</c:v>
+                  <c:v>15.2759545551717</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.1455040075102</c:v>
+                  <c:v>18.1742574401342</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.1310986101231</c:v>
+                  <c:v>21.1621343748142</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.3860014480484</c:v>
+                  <c:v>24.420621578159</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.5900416433245</c:v>
+                  <c:v>27.6277846616029</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.8570981880644</c:v>
+                  <c:v>30.8968167774719</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.3241992572676</c:v>
+                  <c:v>34.3666342213181</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.8434143957806</c:v>
+                  <c:v>37.8874626057912</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41.4071846950887</c:v>
+                  <c:v>41.4520798306207</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45.3415820560583</c:v>
+                  <c:v>45.3910060430651</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49.2934010688952</c:v>
+                  <c:v>49.3451522829393</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>53.341856825592</c:v>
+                  <c:v>53.3951264181324</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>57.6445436098037</c:v>
+                  <c:v>57.6983871022685</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>62.1237076458415</c:v>
+                  <c:v>62.1795811174801</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>66.82137249108401</c:v>
+                  <c:v>66.8794106837971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2635,11 +2635,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2143783000"/>
-        <c:axId val="2073697000"/>
+        <c:axId val="-2114699528"/>
+        <c:axId val="-2114696552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2143783000"/>
+        <c:axId val="-2114699528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2648,7 +2648,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073697000"/>
+        <c:crossAx val="-2114696552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2656,7 +2656,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2073697000"/>
+        <c:axId val="-2114696552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2667,7 +2667,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143783000"/>
+        <c:crossAx val="-2114699528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2714,7 +2714,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR01-var1'!$C$25</c:f>
+              <c:f>'VAR01-var1'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2728,7 +2728,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR01-var1'!$C$26:$C$45</c:f>
+              <c:f>'VAR01-var1'!$C$3:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2802,7 +2802,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR01-var1'!$D$25</c:f>
+              <c:f>'VAR01-var1'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2816,69 +2816,69 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR01-var1'!$D$26:$D$45</c:f>
+              <c:f>'VAR01-var1'!$D$3:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.11501297200256</c:v>
+                  <c:v>0.123904374364694</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.262054903921544</c:v>
+                  <c:v>0.271976766670501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.455264339211357</c:v>
+                  <c:v>0.46547411266136</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.624779722429832</c:v>
+                  <c:v>0.636108132729801</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.769309374221158</c:v>
+                  <c:v>0.781116807967592</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.927104836035391</c:v>
+                  <c:v>0.939339130393021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.08131004072176</c:v>
+                  <c:v>1.09384611210449</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.22754771566756</c:v>
+                  <c:v>1.24033639163669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.39377940870687</c:v>
+                  <c:v>1.40668730116442</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.55295578416317</c:v>
+                  <c:v>1.56608794818184</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.70263476619007</c:v>
+                  <c:v>1.71594584846476</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.86569748969329</c:v>
+                  <c:v>1.87914445338983</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.04049451997296</c:v>
+                  <c:v>2.05420363935581</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.19921961599482</c:v>
+                  <c:v>2.21306504032643</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.36640786296067</c:v>
+                  <c:v>2.38055333410932</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.51234952319918</c:v>
+                  <c:v>2.52676105952179</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.64712703370352</c:v>
+                  <c:v>2.66169947886676</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.7971430820655</c:v>
+                  <c:v>2.81211399204293</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.93508977618257</c:v>
+                  <c:v>2.95044930231019</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.07292362984796</c:v>
+                  <c:v>3.08868197457224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2895,11 +2895,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2139386936"/>
-        <c:axId val="-2139383656"/>
+        <c:axId val="-2111213032"/>
+        <c:axId val="-2111210056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2139386936"/>
+        <c:axId val="-2111213032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2908,7 +2908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139383656"/>
+        <c:crossAx val="-2111210056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2916,7 +2916,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2139383656"/>
+        <c:axId val="-2111210056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2927,7 +2927,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139386936"/>
+        <c:crossAx val="-2111213032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2978,7 +2978,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR01-var1'!$E$25</c:f>
+              <c:f>'VAR01-var1'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2992,69 +2992,69 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR01-var1'!$E$26:$E$45</c:f>
+              <c:f>'VAR01-var1'!$E$3:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>12.6172357876381</c:v>
+                  <c:v>12.6171813949175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.6232129750563</c:v>
+                  <c:v>12.6231100252224</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.6360876243457</c:v>
+                  <c:v>12.6359418074839</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.655879971479</c:v>
+                  <c:v>12.6557085641032</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.6836439180836</c:v>
+                  <c:v>12.6834468739671</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.7214996786567</c:v>
+                  <c:v>12.7212913439373</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.7693575195711</c:v>
+                  <c:v>12.7691409336179</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.8288074762509</c:v>
+                  <c:v>12.8285845376442</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.9051960302129</c:v>
+                  <c:v>12.9050132625256</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.9919204535984</c:v>
+                  <c:v>12.9917826943869</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.0917464018962</c:v>
+                  <c:v>13.0916348385833</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.209567916076</c:v>
+                  <c:v>13.2095178618986</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.3407698897758</c:v>
+                  <c:v>13.3407518376151</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.4845263425381</c:v>
+                  <c:v>13.4845187372158</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.6545366836197</c:v>
+                  <c:v>13.6547079408116</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.835703337263</c:v>
+                  <c:v>13.8359618224763</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.0307348649372</c:v>
+                  <c:v>14.0310479855886</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14.2469086262423</c:v>
+                  <c:v>14.2472343082628</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.4799252680995</c:v>
+                  <c:v>14.4803362892313</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.7314005104666</c:v>
+                  <c:v>14.7319054301708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3071,11 +3071,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2139419016"/>
-        <c:axId val="-2139416072"/>
+        <c:axId val="-2111163176"/>
+        <c:axId val="-2111160232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2139419016"/>
+        <c:axId val="-2111163176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3084,7 +3084,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139416072"/>
+        <c:crossAx val="-2111160232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3092,7 +3092,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2139416072"/>
+        <c:axId val="-2111160232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3103,7 +3103,703 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139419016"/>
+        <c:crossAx val="-2111163176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR01-var1'!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>realMean_c0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01-var1'!$A$26:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>58371.9364778383</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58632.4775525353</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57434.134096443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57897.4712765675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58323.0645707848</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58771.8698934133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59044.9984139311</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59363.5326881757</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59052.4075783801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59311.1983625028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59516.3155590386</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59752.1073129386</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59953.0550646197</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60088.1459457886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59808.7798144426</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>59992.0961363341</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60185.7450038501</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60354.1163627501</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60504.6182548862</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60647.2460622065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR01-var1'!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>learntMean_c0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01-var1'!$B$26:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.92943809722798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3130601514617</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.00373779339924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.67894305568879</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.3975969848436</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.2499290317774</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.1455040075102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.1310986101231</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.3860014480484</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.5900416433245</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.8570981880644</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.3241992572676</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.8434143957806</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41.4071846950887</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45.3415820560583</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49.2934010688952</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53.341856825592</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57.6445436098037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>62.1237076458415</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66.82137249108401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2114037848"/>
+        <c:axId val="-2115444488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2114037848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2115444488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2115444488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2114037848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR01-var1'!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>realMean_c1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01-var1'!$C$26:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>76836.3954505686</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76351.3634331694</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75564.0955256656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79608.99437851339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83451.4538343819</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87653.4194635585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91595.09792142249</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95288.2854436375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97178.729157278</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100442.56620784</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102984.150171645</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105194.777652594</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>108736.553572516</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112174.257425742</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>113405.216317711</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>115859.53726513</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>117797.302857142</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>119690.042619139</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>121133.374308543</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>122620.029050367</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR01-var1'!$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>learntMean_c1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01-var1'!$D$26:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.11501297200256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.262054903921544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.455264339211357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.624779722429832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.769309374221158</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.927104836035391</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.08131004072176</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.22754771566756</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.39377940870687</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.55295578416317</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.70263476619007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.86569748969329</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.04049451997296</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.19921961599482</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.36640786296067</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.51234952319918</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.64712703370352</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7971430820655</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.93508977618257</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.07292362984796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2110973416"/>
+        <c:axId val="-2110970440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2110973416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2110970440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2110970440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2110973416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR01-var1'!$E$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meanH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01-var1'!$E$26:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>12.6172357876381</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.6232129750563</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.6360876243457</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.655879971479</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.6836439180836</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.7214996786567</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.7693575195711</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.8288074762509</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.9051960302129</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.9919204535984</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.0917464018962</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.209567916076</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.3407698897758</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.4845263425381</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.6545366836197</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.835703337263</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.0307348649372</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.2469086262423</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.4799252680995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.7314005104666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2110947816"/>
+        <c:axId val="-2110944872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2110947816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2110944872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2110944872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2110947816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3140,7 +3836,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3439,11 +4134,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126034488"/>
-        <c:axId val="2126037496"/>
+        <c:axId val="-2116571128"/>
+        <c:axId val="-2116568184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126034488"/>
+        <c:axId val="-2116571128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3452,7 +4147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126037496"/>
+        <c:crossAx val="-2116568184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3460,7 +4155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126037496"/>
+        <c:axId val="-2116568184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3471,14 +4166,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126034488"/>
+        <c:crossAx val="-2116571128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4083,8 +4777,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126273512"/>
-        <c:axId val="2126268696"/>
+        <c:axId val="-2116271880"/>
+        <c:axId val="-2116268600"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4599,11 +5293,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126339832"/>
-        <c:axId val="2126297448"/>
+        <c:axId val="-2116262632"/>
+        <c:axId val="-2116265624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126273512"/>
+        <c:axId val="-2116271880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4612,7 +5306,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126268696"/>
+        <c:crossAx val="-2116268600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4620,7 +5314,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126268696"/>
+        <c:axId val="-2116268600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4631,12 +5325,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126273512"/>
+        <c:crossAx val="-2116271880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2126297448"/>
+        <c:axId val="-2116265624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4646,12 +5340,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126339832"/>
+        <c:crossAx val="-2116262632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2126339832"/>
+        <c:axId val="-2116262632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4660,7 +5354,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126297448"/>
+        <c:crossAx val="-2116265624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4670,7 +5364,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4891,11 +5584,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2110204472"/>
-        <c:axId val="-2141667336"/>
+        <c:axId val="-2116544072"/>
+        <c:axId val="-2116541096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2110204472"/>
+        <c:axId val="-2116544072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4904,7 +5597,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141667336"/>
+        <c:crossAx val="-2116541096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4912,7 +5605,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141667336"/>
+        <c:axId val="-2116541096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4923,7 +5616,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110204472"/>
+        <c:crossAx val="-2116544072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5151,11 +5844,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2125645416"/>
-        <c:axId val="2125639656"/>
+        <c:axId val="-2114110984"/>
+        <c:axId val="-2114108664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2125645416"/>
+        <c:axId val="-2114110984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5164,7 +5857,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125639656"/>
+        <c:crossAx val="-2114108664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5172,7 +5865,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125639656"/>
+        <c:axId val="-2114108664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5183,7 +5876,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125645416"/>
+        <c:crossAx val="-2114110984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5327,11 +6020,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127051976"/>
-        <c:axId val="2126859640"/>
+        <c:axId val="-2114081464"/>
+        <c:axId val="-2114078520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127051976"/>
+        <c:axId val="-2114081464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5340,7 +6033,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126859640"/>
+        <c:crossAx val="-2114078520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5348,7 +6041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126859640"/>
+        <c:axId val="-2114078520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5359,7 +6052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127051976"/>
+        <c:crossAx val="-2114081464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5587,11 +6280,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2141509672"/>
-        <c:axId val="-2141630360"/>
+        <c:axId val="-2111293784"/>
+        <c:axId val="-2111290808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2141509672"/>
+        <c:axId val="-2111293784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5600,7 +6293,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141630360"/>
+        <c:crossAx val="-2111290808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5608,7 +6301,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141630360"/>
+        <c:axId val="-2111290808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5619,7 +6312,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141509672"/>
+        <c:crossAx val="-2111293784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5847,11 +6540,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2121343224"/>
-        <c:axId val="2121344632"/>
+        <c:axId val="-2110896456"/>
+        <c:axId val="-2110893480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2121343224"/>
+        <c:axId val="-2110896456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5860,7 +6553,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121344632"/>
+        <c:crossAx val="-2110893480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5868,7 +6561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121344632"/>
+        <c:axId val="-2110893480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5879,7 +6572,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121343224"/>
+        <c:crossAx val="-2110896456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6023,11 +6716,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2129465512"/>
-        <c:axId val="2127381672"/>
+        <c:axId val="-2110870904"/>
+        <c:axId val="-2110867960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2129465512"/>
+        <c:axId val="-2110870904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6036,7 +6729,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127381672"/>
+        <c:crossAx val="-2110867960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6044,7 +6737,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127381672"/>
+        <c:axId val="-2110867960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6055,7 +6748,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129465512"/>
+        <c:crossAx val="-2110870904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6354,6 +7047,96 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6457,16 +7240,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9813,10 +10596,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:E45"/>
+    <sheetView tabSelected="1" topLeftCell="H35" workbookViewId="0">
+      <selection activeCell="T63" sqref="T63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10551,6 +11334,363 @@
       </c>
       <c r="E45">
         <v>10.1987998575596</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>58371.936477838302</v>
+      </c>
+      <c r="B49">
+        <v>58362.531777219097</v>
+      </c>
+      <c r="C49">
+        <v>76836.395450568598</v>
+      </c>
+      <c r="D49">
+        <v>76890.901059369804</v>
+      </c>
+      <c r="E49">
+        <v>12.3247526249295</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>58632.477552535303</v>
+      </c>
+      <c r="B50">
+        <v>58739.075247660599</v>
+      </c>
+      <c r="C50">
+        <v>76351.363433169405</v>
+      </c>
+      <c r="D50">
+        <v>76171.402715873002</v>
+      </c>
+      <c r="E50">
+        <v>12.1891777937157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>57434.134096442998</v>
+      </c>
+      <c r="B51">
+        <v>56858.153505537899</v>
+      </c>
+      <c r="C51">
+        <v>75564.095525665602</v>
+      </c>
+      <c r="D51">
+        <v>75106.759525632297</v>
+      </c>
+      <c r="E51">
+        <v>12.14733549104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>57897.471276567499</v>
+      </c>
+      <c r="B52">
+        <v>57851.670013831099</v>
+      </c>
+      <c r="C52">
+        <v>79608.994378513395</v>
+      </c>
+      <c r="D52">
+        <v>80506.569083400696</v>
+      </c>
+      <c r="E52">
+        <v>12.0970684824364</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>58323.064570784802</v>
+      </c>
+      <c r="B53">
+        <v>58589.847606073301</v>
+      </c>
+      <c r="C53">
+        <v>83451.4538343819</v>
+      </c>
+      <c r="D53">
+        <v>85000.955376895596</v>
+      </c>
+      <c r="E53">
+        <v>12.140166297901001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>58771.869893413299</v>
+      </c>
+      <c r="B54">
+        <v>59299.527781249002</v>
+      </c>
+      <c r="C54">
+        <v>87653.419463558501</v>
+      </c>
+      <c r="D54">
+        <v>89732.130860826102</v>
+      </c>
+      <c r="E54">
+        <v>12.306562899036701</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>59044.998413931098</v>
+      </c>
+      <c r="B55">
+        <v>59663.803616399498</v>
+      </c>
+      <c r="C55">
+        <v>91595.097921422494</v>
+      </c>
+      <c r="D55">
+        <v>94242.718071618205</v>
+      </c>
+      <c r="E55">
+        <v>12.5601594059512</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>59363.532688175699</v>
+      </c>
+      <c r="B56">
+        <v>60126.121073328002</v>
+      </c>
+      <c r="C56">
+        <v>95288.285443637506</v>
+      </c>
+      <c r="D56">
+        <v>98446.095412648705</v>
+      </c>
+      <c r="E56">
+        <v>12.912503690411</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>59052.407578380102</v>
+      </c>
+      <c r="B57">
+        <v>59373.008606833202</v>
+      </c>
+      <c r="C57">
+        <v>97178.729157277994</v>
+      </c>
+      <c r="D57">
+        <v>100167.97675627</v>
+      </c>
+      <c r="E57">
+        <v>12.9846464908938</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>59311.198362502801</v>
+      </c>
+      <c r="B58">
+        <v>59824.362406875698</v>
+      </c>
+      <c r="C58">
+        <v>100442.56620784001</v>
+      </c>
+      <c r="D58">
+        <v>104059.451348751</v>
+      </c>
+      <c r="E58">
+        <v>13.447903001202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>59516.315559038601</v>
+      </c>
+      <c r="B59">
+        <v>60158.088349266203</v>
+      </c>
+      <c r="C59">
+        <v>102984.150171645</v>
+      </c>
+      <c r="D59">
+        <v>107156.748828396</v>
+      </c>
+      <c r="E59">
+        <v>13.867931786099099</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>59752.107312938599</v>
+      </c>
+      <c r="B60">
+        <v>60550.723997144203</v>
+      </c>
+      <c r="C60">
+        <v>105194.777652594</v>
+      </c>
+      <c r="D60">
+        <v>109909.44386268</v>
+      </c>
+      <c r="E60">
+        <v>14.3050186710357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>59953.055064619701</v>
+      </c>
+      <c r="B61">
+        <v>60887.794890009602</v>
+      </c>
+      <c r="C61">
+        <v>108736.553572516</v>
+      </c>
+      <c r="D61">
+        <v>114454.54591636499</v>
+      </c>
+      <c r="E61">
+        <v>15.043936022461599</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>60088.145945788601</v>
+      </c>
+      <c r="B62">
+        <v>61084.287990235098</v>
+      </c>
+      <c r="C62">
+        <v>112174.25742574201</v>
+      </c>
+      <c r="D62">
+        <v>118687.979675418</v>
+      </c>
+      <c r="E62">
+        <v>15.739889593475899</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>59808.779814442598</v>
+      </c>
+      <c r="B63">
+        <v>60334.671563657801</v>
+      </c>
+      <c r="C63">
+        <v>113405.21631771101</v>
+      </c>
+      <c r="D63">
+        <v>119234.669477307</v>
+      </c>
+      <c r="E63">
+        <v>15.6680276680859</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>59992.096136334098</v>
+      </c>
+      <c r="B64">
+        <v>60687.333649634696</v>
+      </c>
+      <c r="C64">
+        <v>115859.53726513</v>
+      </c>
+      <c r="D64">
+        <v>122210.69332673401</v>
+      </c>
+      <c r="E64">
+        <v>16.2459684260762</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>60185.745003850097</v>
+      </c>
+      <c r="B65">
+        <v>61051.641784011998</v>
+      </c>
+      <c r="C65">
+        <v>117797.302857142</v>
+      </c>
+      <c r="D65">
+        <v>124588.12156020101</v>
+      </c>
+      <c r="E65">
+        <v>16.747565352140899</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>60354.116362750101</v>
+      </c>
+      <c r="B66">
+        <v>61349.749048587</v>
+      </c>
+      <c r="C66">
+        <v>119690.042619139</v>
+      </c>
+      <c r="D66">
+        <v>126852.636659975</v>
+      </c>
+      <c r="E66">
+        <v>17.226594467598101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>60504.618254886198</v>
+      </c>
+      <c r="B67">
+        <v>61597.231091269001</v>
+      </c>
+      <c r="C67">
+        <v>121133.374308543</v>
+      </c>
+      <c r="D67">
+        <v>128589.666359404</v>
+      </c>
+      <c r="E67">
+        <v>17.609699209828499</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>60647.246062206497</v>
+      </c>
+      <c r="B68">
+        <v>61829.6244976991</v>
+      </c>
+      <c r="C68">
+        <v>122620.029050367</v>
+      </c>
+      <c r="D68">
+        <v>130489.850535861</v>
+      </c>
+      <c r="E68">
+        <v>18.026643498654</v>
       </c>
     </row>
   </sheetData>
@@ -10573,8 +11713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E22"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/extensions/icdm2016/doc-Experiments/RecapExperiments.xlsx
+++ b/extensions/icdm2016/doc-Experiments/RecapExperiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22300" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CajaMar" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="125">
   <si>
     <t>2016-bs100</t>
   </si>
@@ -446,8 +446,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -502,7 +504,7 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -526,6 +528,7 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -549,6 +552,7 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -11661,6 +11665,697 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'many!10Kbs'!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ida2015-aggreg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'many!10Kbs'!$Z$2:$Z$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>2372.41437172793</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1615.20571963503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3392.16502769283</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3703.13859855302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3828.81946685368</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3988.40375315707</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4082.96829283384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4126.97961822896</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4846.38064812796</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4294.11206860795</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4269.43727801853</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4356.16718919735</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4350.87836841498</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4330.59438116778</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5092.27773955047</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4412.83317839302</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4327.62771125282</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4432.9145428868</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4402.6298572019</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4385.84779826794</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5207.65603655651</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4448.74855522494</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4455.72624755461</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4562.96828452503</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4485.08473847178</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4489.97157036886</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5347.80935983648</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4577.23289785248</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4503.99639598618</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4628.54806350651</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4566.91538029693</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4544.76243004434</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5473.46577182584</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4634.34932840615</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4604.50349767024</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4772.79076101849</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4652.68327596632</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4685.11858601232</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5586.02715075624</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4714.92579379838</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4728.90919254984</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4810.66564528312</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4691.90732729206</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4725.66033890325</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5680.28653309161</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4808.84060341374</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4768.38312974166</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5716.24394001021</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4783.61194089902</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4789.42667298383</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5733.34608801486</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4848.49253433322</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4761.53321271724</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5745.60827254274</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4870.67844786203</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4855.0890254204</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5851.77936182761</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4930.35064407189</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4985.05600989755</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5985.84478664743</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4991.22394189275</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5009.42805219768</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6018.00208100256</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5087.76672413486</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4910.42711337323</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5902.86164950349</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4871.54042854612</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4861.1023329455</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5945.83806578787</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4917.18681931747</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4858.48188160274</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5940.96689837518</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4901.4146027018</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4897.24886840752</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5917.61210034282</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4910.7388096513</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4746.98641104891</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5811.21093089624</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4768.28830734431</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4643.15565931788</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5783.48210729794</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4773.11071033681</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4590.8106327454</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5766.57037773593</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2111764728"/>
+        <c:axId val="2073225832"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'many!10Kbs'!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meanH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'many!10Kbs'!$Y$2:$Y$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>20.980514675898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.698750999255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.7084695108404</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.8257551596728</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.8378077564021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.3694270353188</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.5666919777193</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.9466338730162</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.7100532054554</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.47984979747132</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.440394144207429</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.69369786699984</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.13531047906286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.97111219291588</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.14395291036311</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.29809495404568</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.5057391712858</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.90994387550292</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.60239806387164</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.2069456544196</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.174368467323241</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.82895230128635</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.17077618432742</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.34151011817187</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.64983330933806</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.30714407940091</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.73522304145216</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.43179525743776</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.73180201581325</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.11953367912582</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.41622217505002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.63169207544746</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.678571636092799</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.6544730929866</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.01035444136643</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.2899508695962</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.60852623543662</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.36428822710297</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.64275218050354</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.20686127395333</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.7490669778828</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.32798268746397</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.56757144306006</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.78841259512385</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.46931255934742</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.07118288388643</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.00854386187528</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.95858832363183</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.38674621177037</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.06997445171365</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.20149097280262</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.79320209261001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.02783560423915</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.89461029985762</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.02530807312024</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.03850097989737</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.99773951242459</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.8215687911319</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.63820433731199</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.43424270951413</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.01003494450943</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.34394714805907</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.72435925114073</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.37315486975288</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.42138623271999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.7057284728378</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.43434881729495</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.25026842789127</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.18515559736434</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.74968642056207</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.48937926294632</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.55113266010311</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.71504892411589</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.238139669680907</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.97334328052663</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.0873688784076103</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.519416208663476</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.56103428377152</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.824942992877431</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.880586124768109</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.87135764285664</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.534647219431857</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0166690155086437</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.47731305615562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2078899624"/>
+        <c:axId val="-2086874376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2111764728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2073225832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2073225832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2111764728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2086874376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2078899624"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2078899624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2086874376"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:layout/>
       <c:overlay val="0"/>
@@ -12015,7 +12710,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13219,7 +13914,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14423,7 +15118,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -15606,1210 +16301,6 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="-2141654200"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'many!50Kbs'!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VAR04realMean_c0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'many!50Kbs'!$M$2:$M$85</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
-                <c:pt idx="0">
-                  <c:v>7694.21171272814</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7828.55519804247</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7572.61778987554</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7733.67179326886</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7446.26437989178</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7098.48968022133</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6749.95521058557</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6577.40987760912</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6185.06117835115</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6808.08823173773</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6857.93660953426</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7002.7463913285</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6839.51986471658</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6892.05427954521</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6216.90874082861</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6738.11065461615</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6527.95270386916</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6078.32396467676</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5824.8384385476</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5560.37533513424</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5277.53042711949</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5903.9899468281</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6058.25454505332</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6261.28805328017</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6594.86620421412</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6768.60457411448</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6120.99899502792</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6954.24134154924</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6833.91825740203</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6498.03653842321</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6225.57711357396</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6093.47841071248</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5651.53093236976</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6270.54961710211</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6423.52863394221</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6787.17335275431</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7210.88754596436</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7312.91385547112</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6661.14564719317</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7513.98561803452</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7132.91941213626</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6663.56093104635</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6475.39851390315</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6236.59385651162</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5851.14526931838</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6694.36739455941</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6740.92039735835</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6184.9186366865</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7196.10663719397</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>7301.6630473385</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6592.66609723404</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>7405.44074767126</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>7162.11024270825</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6081.49125082496</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>6464.89779929553</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>6351.9861344894</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5870.83020548958</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>6585.46084308944</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>6706.87790375759</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6315.86468698655</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>7334.54933734216</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>7531.8943808341</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6777.47202420427</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>7476.59209485852</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>7462.57739260835</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6140.33823454638</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6661.53681191694</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6586.99486057685</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6005.38005149458</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6945.7789788785</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7273.13163668445</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>6753.08965784905</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>7881.22797444528</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>8266.1906118676</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7376.16521512802</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>8457.401774609431</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>8181.63592319347</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>6811.39801226172</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7607.60597662911</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7540.37932172583</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>6773.19412995503</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>7843.41774695486</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>8402.556977908251</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>7402.61561069106</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'many!50Kbs'!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VAR04learntMean_c0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'many!50Kbs'!$N$2:$N$85</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
-                <c:pt idx="0">
-                  <c:v>7695.7140322161</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7784.89185575571</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7672.65896006668</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7695.13944899088</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7612.83388687782</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7441.69447028005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7225.34265336839</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7025.12111362004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6713.99237877853</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6749.2858684402</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6776.02188115486</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6824.40754754471</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6818.52083404085</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6817.50590181592</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6664.27091529417</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6672.06829057952</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6619.83330135342</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6477.52720592304</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6320.73777093195</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6112.83627301177</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5872.57644388766</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5864.91522617716</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5894.72733323853</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5974.16830354394</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6098.37377864881</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6210.18285977512</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6170.6313454891</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6305.59759836882</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6352.4897015835</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6329.14583237815</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6269.0123761049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6193.84416916923</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6056.32715470547</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6050.16014510453</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6082.28128558492</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6171.21662152595</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6294.39197583983</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6399.90615593836</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6402.44201893172</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6512.45922016648</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6531.43422468204</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6492.78148329458</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6449.07406893848</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6388.01635832776</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6291.74642542385</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6332.76258716596</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6355.36146514065</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6309.71674190697</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>6396.46103698829</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>6468.3248038094</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6449.61865291518</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>6534.35650630965</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>6572.97820293466</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6466.83703796949</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>6451.18359335698</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>6415.94198074702</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>6320.78742709774</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>6337.74309852322</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>6346.63765200108</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6305.05473055035</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6385.19497580601</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6480.39489743782</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6463.5304995471</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6544.87783428101</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6594.60260753191</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6476.02371787836</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6487.97139043816</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6493.00779875532</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6428.92575749196</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6483.75710421023</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>6534.48248805571</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>6510.38768226974</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>6615.55135372716</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>6707.64477593249</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>6683.24898560662</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>6787.23545793365</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>6830.60971913399</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>6751.5464426737</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>6804.65344534667</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>6831.22659256356</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>6797.56959359354</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>6848.96141683126</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>6910.52336905755</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>6887.60628543441</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'many!50Kbs'!$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VAR04realMean_c1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'many!50Kbs'!$O$2:$O$85</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
-                <c:pt idx="0">
-                  <c:v>1353.72213473315</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1354.60584474885</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1233.70943852167</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1323.33831180017</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1228.0978313253</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1631.71771152296</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>782.937855361595</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>506.002120441051</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>456.869680250783</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>615.524153498871</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>995.817998423954</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>691.1967691208</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>618.622829194883</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>696.548212867354</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>425.960793201133</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>494.211636363636</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>448.412924126172</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>363.648738007379</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>421.723466440102</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>385.747689429373</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>247.994275318374</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>475.87962721342</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>491.143627152988</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>593.270377524144</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>697.577497231451</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>910.727449584816</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>356.636077081899</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>661.0428848484841</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>600.499030144167</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>468.742802802803</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>731.795600539811</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>755.577717546362</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>320.295323790047</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>546.554066225165</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>595.863328631875</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>288.463004975124</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>696.364572230013</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>485.278344459278</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>89.7187702265372</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>505.261182147164</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>188.061082737487</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>144.712145960034</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>258.067354685646</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>381.160369003689</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>128.392540661805</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>307.86279959718</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>270.802439537329</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>132.111453456722</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>474.702508038585</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>427.212123212321</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>185.875808704997</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>344.956689520078</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>528.452587412587</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>193.403280853225</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>347.836450704225</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>250.205870556061</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>67.9154877484974</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>169.968541114058</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>163.825562336529</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>99.0358307068887</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>246.751971197119</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>279.472345013477</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>146.972895548699</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>292.875350701402</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>352.193922746781</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>140.189395348837</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>281.519317585301</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>300.988563968668</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>176.137492923574</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>285.51876701361</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>295.960954816709</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>112.68604091456</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>156.872109181141</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>178.525648224607</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>69.2436134122287</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>143.143641069887</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>323.652774070543</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-1.75958065896447</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>229.572511415525</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>170.147030185004</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44.0896327564373</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>118.410300429184</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>213.457013118062</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-4.1066380320187</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'many!50Kbs'!$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VAR04learntMean_c1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'many!50Kbs'!$P$2:$P$85</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
-                <c:pt idx="0">
-                  <c:v>1350.27543507112</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1357.61259586368</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1287.74205367838</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1306.65588670594</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1279.76588444416</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1307.70222449661</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1215.02135973643</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1076.15217994154</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>875.142531273052</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>831.724923819722</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>865.367571349385</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>835.83659541891</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>788.648737415929</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>759.18949007418</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>644.8457132832129</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>615.312059637027</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>557.427370440959</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>465.3672893134</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>407.837310863832</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>330.170886699669</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>249.358065212858</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>275.688658969961</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>306.945668295684</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>371.484772562205</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>446.199245172197</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>521.527909781249</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>475.360952411238</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>541.785661939041</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>548.358344624784</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>511.589974696447</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>483.810945990595</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>453.033388694092</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>372.443361496954</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>365.895446442053</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>382.925178300497</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>399.639346609139</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>460.255276886497</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>496.432350117829</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>433.417072464659</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>481.371367601079</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>445.426605962603</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>374.385109903454</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>323.566290145654</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>278.589045056373</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>204.004105480787</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>229.176709540217</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>231.959964253791</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>186.010268332097</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>246.681684779249</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>287.015944056613</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>249.340124878864</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>300.020813370732</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>327.485390626415</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>229.528453471798</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>221.038907194274</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>190.687718949091</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>110.848899550099</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>119.631117503819</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>113.690366978253</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>72.2723858433194</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>119.123133931683</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>179.931645807115</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>142.59840059121</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>199.297238069317</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>225.896742739481</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>109.966441800336</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>125.21155505025</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>136.679366892025</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>97.7303566235089</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>148.386659674095</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>181.697424426701</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>137.300847733258</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>207.685401517468</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>255.798403985231</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>177.853128989949</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>243.285902937871</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>252.697326993646</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>127.578872888558</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>170.811966568968</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>179.567759218504</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>124.882996140949</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>156.539285442407</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>190.969851481698</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>118.08859923322</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2087403624"/>
-        <c:axId val="-2082736584"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-2087403624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2082736584"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2082736584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2087403624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18048,6 +17539,1210 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'many!50Kbs'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VAR04realMean_c0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'many!50Kbs'!$M$2:$M$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>7694.21171272814</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7828.55519804247</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7572.61778987554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7733.67179326886</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7446.26437989178</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7098.48968022133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6749.95521058557</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6577.40987760912</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6185.06117835115</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6808.08823173773</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6857.93660953426</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7002.7463913285</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6839.51986471658</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6892.05427954521</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6216.90874082861</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6738.11065461615</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6527.95270386916</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6078.32396467676</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5824.8384385476</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5560.37533513424</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5277.53042711949</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5903.9899468281</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6058.25454505332</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6261.28805328017</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6594.86620421412</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6768.60457411448</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6120.99899502792</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6954.24134154924</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6833.91825740203</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6498.03653842321</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6225.57711357396</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6093.47841071248</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5651.53093236976</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6270.54961710211</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6423.52863394221</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6787.17335275431</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7210.88754596436</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7312.91385547112</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6661.14564719317</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7513.98561803452</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7132.91941213626</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6663.56093104635</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6475.39851390315</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6236.59385651162</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5851.14526931838</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6694.36739455941</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6740.92039735835</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6184.9186366865</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7196.10663719397</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7301.6630473385</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6592.66609723404</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7405.44074767126</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7162.11024270825</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6081.49125082496</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6464.89779929553</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6351.9861344894</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5870.83020548958</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6585.46084308944</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6706.87790375759</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6315.86468698655</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7334.54933734216</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7531.8943808341</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6777.47202420427</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7476.59209485852</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7462.57739260835</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6140.33823454638</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6661.53681191694</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6586.99486057685</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6005.38005149458</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6945.7789788785</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7273.13163668445</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6753.08965784905</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7881.22797444528</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8266.1906118676</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7376.16521512802</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8457.401774609431</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8181.63592319347</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6811.39801226172</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7607.60597662911</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7540.37932172583</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6773.19412995503</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7843.41774695486</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8402.556977908251</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7402.61561069106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'many!50Kbs'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VAR04learntMean_c0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'many!50Kbs'!$N$2:$N$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>7695.7140322161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7784.89185575571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7672.65896006668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7695.13944899088</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7612.83388687782</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7441.69447028005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7225.34265336839</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7025.12111362004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6713.99237877853</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6749.2858684402</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6776.02188115486</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6824.40754754471</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6818.52083404085</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6817.50590181592</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6664.27091529417</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6672.06829057952</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6619.83330135342</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6477.52720592304</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6320.73777093195</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6112.83627301177</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5872.57644388766</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5864.91522617716</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5894.72733323853</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5974.16830354394</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6098.37377864881</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6210.18285977512</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6170.6313454891</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6305.59759836882</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6352.4897015835</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6329.14583237815</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6269.0123761049</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6193.84416916923</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6056.32715470547</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6050.16014510453</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6082.28128558492</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6171.21662152595</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6294.39197583983</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6399.90615593836</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6402.44201893172</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6512.45922016648</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6531.43422468204</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6492.78148329458</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6449.07406893848</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6388.01635832776</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6291.74642542385</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6332.76258716596</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6355.36146514065</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6309.71674190697</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6396.46103698829</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6468.3248038094</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6449.61865291518</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6534.35650630965</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6572.97820293466</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6466.83703796949</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6451.18359335698</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6415.94198074702</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6320.78742709774</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6337.74309852322</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6346.63765200108</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6305.05473055035</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6385.19497580601</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6480.39489743782</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6463.5304995471</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6544.87783428101</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6594.60260753191</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6476.02371787836</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6487.97139043816</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6493.00779875532</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6428.92575749196</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6483.75710421023</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6534.48248805571</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6510.38768226974</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6615.55135372716</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6707.64477593249</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6683.24898560662</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6787.23545793365</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6830.60971913399</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6751.5464426737</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6804.65344534667</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6831.22659256356</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6797.56959359354</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6848.96141683126</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6910.52336905755</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6887.60628543441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'many!50Kbs'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VAR04realMean_c1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'many!50Kbs'!$O$2:$O$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>1353.72213473315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1354.60584474885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1233.70943852167</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1323.33831180017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1228.0978313253</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1631.71771152296</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>782.937855361595</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>506.002120441051</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>456.869680250783</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>615.524153498871</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>995.817998423954</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>691.1967691208</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>618.622829194883</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>696.548212867354</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>425.960793201133</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>494.211636363636</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>448.412924126172</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>363.648738007379</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>421.723466440102</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>385.747689429373</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>247.994275318374</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>475.87962721342</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>491.143627152988</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>593.270377524144</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>697.577497231451</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>910.727449584816</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>356.636077081899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>661.0428848484841</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>600.499030144167</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>468.742802802803</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>731.795600539811</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>755.577717546362</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320.295323790047</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>546.554066225165</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>595.863328631875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>288.463004975124</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>696.364572230013</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>485.278344459278</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>89.7187702265372</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>505.261182147164</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>188.061082737487</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>144.712145960034</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>258.067354685646</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>381.160369003689</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>128.392540661805</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>307.86279959718</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>270.802439537329</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>132.111453456722</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>474.702508038585</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>427.212123212321</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>185.875808704997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>344.956689520078</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>528.452587412587</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>193.403280853225</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>347.836450704225</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>250.205870556061</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>67.9154877484974</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>169.968541114058</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>163.825562336529</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>99.0358307068887</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>246.751971197119</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>279.472345013477</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>146.972895548699</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>292.875350701402</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>352.193922746781</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>140.189395348837</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>281.519317585301</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>300.988563968668</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>176.137492923574</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>285.51876701361</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>295.960954816709</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>112.68604091456</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>156.872109181141</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>178.525648224607</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>69.2436134122287</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>143.143641069887</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>323.652774070543</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-1.75958065896447</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>229.572511415525</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>170.147030185004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44.0896327564373</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>118.410300429184</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>213.457013118062</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-4.1066380320187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'many!50Kbs'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VAR04learntMean_c1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'many!50Kbs'!$P$2:$P$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>1350.27543507112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1357.61259586368</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1287.74205367838</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1306.65588670594</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1279.76588444416</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1307.70222449661</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1215.02135973643</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1076.15217994154</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>875.142531273052</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>831.724923819722</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>865.367571349385</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>835.83659541891</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>788.648737415929</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>759.18949007418</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>644.8457132832129</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>615.312059637027</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>557.427370440959</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>465.3672893134</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>407.837310863832</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>330.170886699669</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>249.358065212858</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>275.688658969961</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>306.945668295684</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>371.484772562205</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>446.199245172197</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>521.527909781249</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>475.360952411238</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>541.785661939041</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>548.358344624784</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>511.589974696447</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>483.810945990595</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>453.033388694092</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>372.443361496954</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>365.895446442053</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>382.925178300497</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>399.639346609139</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>460.255276886497</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>496.432350117829</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>433.417072464659</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>481.371367601079</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>445.426605962603</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>374.385109903454</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>323.566290145654</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>278.589045056373</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>204.004105480787</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>229.176709540217</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>231.959964253791</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>186.010268332097</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>246.681684779249</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>287.015944056613</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>249.340124878864</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>300.020813370732</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>327.485390626415</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>229.528453471798</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>221.038907194274</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>190.687718949091</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>110.848899550099</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>119.631117503819</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>113.690366978253</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>72.2723858433194</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>119.123133931683</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>179.931645807115</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>142.59840059121</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>199.297238069317</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>225.896742739481</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>109.966441800336</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>125.21155505025</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>136.679366892025</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>97.7303566235089</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>148.386659674095</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>181.697424426701</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>137.300847733258</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>207.685401517468</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>255.798403985231</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>177.853128989949</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>243.285902937871</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>252.697326993646</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>127.578872888558</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>170.811966568968</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>179.567759218504</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>124.882996140949</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>156.539285442407</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>190.969851481698</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>118.08859923322</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2087403624"/>
+        <c:axId val="-2082736584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2087403624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2082736584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2082736584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2087403624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'many!50Kbs'!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -19227,7 +19922,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -20413,6 +21108,697 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'many!50Kbs'!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ida2015-aggreg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'many!50Kbs'!$Z$2:$Z$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>2372.41437172793</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1615.20571963503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3392.16502769283</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3703.13859855302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3828.81946685368</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3988.40375315707</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4082.96829283384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4126.97961822896</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4846.38064812796</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4294.11206860795</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4269.43727801853</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4356.16718919735</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4350.87836841498</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4330.59438116778</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5092.27773955047</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4412.83317839302</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4327.62771125282</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4432.9145428868</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4402.6298572019</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4385.84779826794</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5207.65603655651</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4448.74855522494</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4455.72624755461</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4562.96828452503</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4485.08473847178</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4489.97157036886</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5347.80935983648</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4577.23289785248</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4503.99639598618</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4628.54806350651</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4566.91538029693</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4544.76243004434</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5473.46577182584</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4634.34932840615</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4604.50349767024</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4772.79076101849</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4652.68327596632</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4685.11858601232</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5586.02715075624</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4714.92579379838</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4728.90919254984</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4810.66564528312</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4691.90732729206</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4725.66033890325</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5680.28653309161</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4808.84060341374</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4768.38312974166</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5716.24394001021</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4783.61194089902</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4789.42667298383</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5733.34608801486</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4848.49253433322</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4761.53321271724</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5745.60827254274</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4870.67844786203</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4855.0890254204</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5851.77936182761</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4930.35064407189</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4985.05600989755</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5985.84478664743</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4991.22394189275</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5009.42805219768</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6018.00208100256</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5087.76672413486</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4910.42711337323</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5902.86164950349</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4871.54042854612</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4861.1023329455</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5945.83806578787</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4917.18681931747</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4858.48188160274</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5940.96689837518</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4901.4146027018</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4897.24886840752</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5917.61210034282</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4910.7388096513</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4746.98641104891</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5811.21093089624</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4768.28830734431</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4643.15565931788</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5783.48210729794</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4773.11071033681</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4590.8106327454</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5766.57037773593</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2094105752"/>
+        <c:axId val="2118283448"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'many!50Kbs'!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meanH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'many!50Kbs'!$Y$2:$Y$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>10.8072435130333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0648305383034</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.2335120024014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.67428197848336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.0797345840148</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.8110761089346</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.6043245880864</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.6632152184117</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.8273658087445</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.4040551431653</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.3010769605411</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.1562917441367</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.4788222061314</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.9801964416607</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.330810703979</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.4680798435724</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.4503310260286</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.2181930868125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.7629387743564</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.0370325614702</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26.1056808833832</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26.4108798180194</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26.3746344113455</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25.6472347194068</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.3980885793819</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.359339941234</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24.1044721983733</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22.4971398962398</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.4246951359835</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23.3649426438605</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24.7266512600354</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>26.3140204244851</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28.4429173592135</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>29.1005522296281</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>29.0924595095012</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>28.240415197979</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26.8970330531571</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25.781620106091</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26.2666953219071</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24.907900321791</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.3766525497408</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>26.7995926686183</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28.1192256838855</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>29.6149539519492</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>31.3877469165637</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30.8671509994644</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>30.8783649670414</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>31.9478783085413</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>30.6934617290869</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>29.8043705632509</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>30.6380829032248</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>29.272521229206</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>28.8588550630136</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>31.557428759387</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>32.0731771607578</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>33.0891403072606</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>35.2178922088181</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>35.0790595664148</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>35.3675895554805</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>36.7017760700695</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>35.599037450954</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>34.0075341322167</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>35.127475217581</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>33.6845545429264</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>33.1254371633329</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>36.6975732018079</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>36.5348807039221</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>36.4932760679482</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>37.9900839662866</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>36.7202927601495</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>35.9047034544179</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>37.1652415013723</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>34.9462160842027</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>33.3707729912489</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>35.3683807616677</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>33.2626187002357</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>33.0661074023232</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>36.4443390627434</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>35.2279378040133</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>34.9552101154279</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>36.3631137862858</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>35.369863022628</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>34.3682482617273</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>36.1876891453234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2078546008"/>
+        <c:axId val="-2078548968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2094105752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2118283448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2118283448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2094105752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2078548968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2078546008"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2078546008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2078548968"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -22586,6 +23972,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -22593,16 +24009,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22745,16 +24161,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22775,16 +24191,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22798,6 +24214,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -23130,8 +24576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView topLeftCell="G8" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -26067,7 +27513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C49" sqref="C49:D68"/>
     </sheetView>
   </sheetViews>
@@ -27948,15 +29394,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y85"/>
+  <dimension ref="A1:Z85"/>
   <sheetViews>
-    <sheetView topLeftCell="Q7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Y85"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -28032,8 +29478,11 @@
       <c r="Y1" t="s">
         <v>97</v>
       </c>
+      <c r="Z1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>58371.936477838302</v>
       </c>
@@ -28109,8 +29558,11 @@
       <c r="Y2">
         <v>20.980514675898</v>
       </c>
+      <c r="Z2">
+        <v>2372.4143717279298</v>
+      </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>58891.846238850703</v>
       </c>
@@ -28186,8 +29638,11 @@
       <c r="Y3">
         <v>17.698750999255001</v>
       </c>
+      <c r="Z3">
+        <v>1615.2057196350299</v>
+      </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>55341.951844756499</v>
       </c>
@@ -28263,8 +29718,11 @@
       <c r="Y4">
         <v>16.708469510840398</v>
       </c>
+      <c r="Z4">
+        <v>3392.1650276928299</v>
+      </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>59324.657640232101</v>
       </c>
@@ -28340,8 +29798,11 @@
       <c r="Y5">
         <v>13.8257551596728</v>
       </c>
+      <c r="Z5">
+        <v>3703.1385985530201</v>
+      </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>60083.1934750215</v>
       </c>
@@ -28417,8 +29878,11 @@
       <c r="Y6">
         <v>12.8378077564021</v>
       </c>
+      <c r="Z6">
+        <v>3828.8194668536798</v>
+      </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>61043.1368912381</v>
       </c>
@@ -28494,8 +29958,11 @@
       <c r="Y7">
         <v>12.3694270353188</v>
       </c>
+      <c r="Z7">
+        <v>3988.4037531570698</v>
+      </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>60696.358897644997</v>
       </c>
@@ -28571,8 +30038,11 @@
       <c r="Y8">
         <v>11.5666919777193</v>
       </c>
+      <c r="Z8">
+        <v>4082.9682928338402</v>
+      </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>61615.5286326571</v>
       </c>
@@ -28648,8 +30118,11 @@
       <c r="Y9">
         <v>10.9466338730162</v>
       </c>
+      <c r="Z9">
+        <v>4126.9796182289601</v>
+      </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>56889.344753633202</v>
       </c>
@@ -28725,8 +30198,11 @@
       <c r="Y10">
         <v>11.710053205455401</v>
       </c>
+      <c r="Z10">
+        <v>4846.3806481279598</v>
+      </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>61644.715164522902</v>
       </c>
@@ -28802,8 +30278,11 @@
       <c r="Y11">
         <v>9.4798497974713207</v>
       </c>
+      <c r="Z11">
+        <v>4294.1120686079503</v>
+      </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>61587.184057772203</v>
       </c>
@@ -28879,8 +30358,11 @@
       <c r="Y12">
         <v>8.4403941442074295</v>
       </c>
+      <c r="Z12">
+        <v>4269.4372780185304</v>
+      </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>62330.405801017798</v>
       </c>
@@ -28956,8 +30438,11 @@
       <c r="Y13">
         <v>7.6936978669998402</v>
       </c>
+      <c r="Z13">
+        <v>4356.1671891973501</v>
+      </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>62354.1118643558</v>
       </c>
@@ -29033,8 +30518,11 @@
       <c r="Y14">
         <v>7.1353104790628601</v>
       </c>
+      <c r="Z14">
+        <v>4350.8783684149803</v>
+      </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:26">
       <c r="A15">
         <v>61844.9621766899</v>
       </c>
@@ -29110,8 +30598,11 @@
       <c r="Y15">
         <v>6.9711121929158804</v>
       </c>
+      <c r="Z15">
+        <v>4330.5943811677798</v>
+      </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:26">
       <c r="A16">
         <v>56465.164859253899</v>
       </c>
@@ -29187,8 +30678,11 @@
       <c r="Y16">
         <v>8.1439529103631099</v>
       </c>
+      <c r="Z16">
+        <v>5092.27773955047</v>
+      </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:26">
       <c r="A17">
         <v>62726.711485092601</v>
       </c>
@@ -29264,8 +30758,11 @@
       <c r="Y17">
         <v>6.2980949540456796</v>
       </c>
+      <c r="Z17">
+        <v>4412.8331783930198</v>
+      </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:26">
       <c r="A18">
         <v>63331.112288937598</v>
       </c>
@@ -29341,8 +30838,11 @@
       <c r="Y18">
         <v>6.5057391712857999</v>
       </c>
+      <c r="Z18">
+        <v>4327.6277112528196</v>
+      </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:26">
       <c r="A19">
         <v>63194.529640989102</v>
       </c>
@@ -29418,8 +30918,11 @@
       <c r="Y19">
         <v>6.9099438755029201</v>
       </c>
+      <c r="Z19">
+        <v>4432.9145428867996</v>
+      </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:26">
       <c r="A20">
         <v>63208.963451882497</v>
       </c>
@@ -29495,8 +30998,11 @@
       <c r="Y20">
         <v>6.6023980638716404</v>
       </c>
+      <c r="Z20">
+        <v>4402.6298572019004</v>
+      </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:26">
       <c r="A21">
         <v>63357.282509738303</v>
       </c>
@@ -29572,8 +31078,11 @@
       <c r="Y21">
         <v>7.2069456544195996</v>
       </c>
+      <c r="Z21">
+        <v>4385.8477982679397</v>
+      </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:26">
       <c r="A22">
         <v>56985.922605895998</v>
       </c>
@@ -29649,8 +31158,11 @@
       <c r="Y22">
         <v>8.1743684673232408</v>
       </c>
+      <c r="Z22">
+        <v>5207.6560365565101</v>
+      </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:26">
       <c r="A23">
         <v>62413.886556787802</v>
       </c>
@@ -29726,8 +31238,11 @@
       <c r="Y23">
         <v>6.8289523012863498</v>
       </c>
+      <c r="Z23">
+        <v>4448.74855522494</v>
+      </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:26">
       <c r="A24">
         <v>62241.029790364097</v>
       </c>
@@ -29803,8 +31318,11 @@
       <c r="Y24">
         <v>6.17077618432742</v>
       </c>
+      <c r="Z24">
+        <v>4455.7262475546104</v>
+      </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:26">
       <c r="A25">
         <v>63316.228203238898</v>
       </c>
@@ -29880,8 +31398,11 @@
       <c r="Y25">
         <v>5.34151011817187</v>
       </c>
+      <c r="Z25">
+        <v>4562.96828452503</v>
+      </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:26">
       <c r="A26">
         <v>63176.154059863402</v>
       </c>
@@ -29957,8 +31478,11 @@
       <c r="Y26">
         <v>4.6498333093380602</v>
       </c>
+      <c r="Z26">
+        <v>4485.0847384717799</v>
+      </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:26">
       <c r="A27">
         <v>62472.376378252498</v>
       </c>
@@ -30034,8 +31558,11 @@
       <c r="Y27">
         <v>4.3071440794009099</v>
       </c>
+      <c r="Z27">
+        <v>4489.9715703688598</v>
+      </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:26">
       <c r="A28">
         <v>57572.7947946719</v>
       </c>
@@ -30111,8 +31638,11 @@
       <c r="Y28">
         <v>5.7352230414521603</v>
       </c>
+      <c r="Z28">
+        <v>5347.8093598364803</v>
+      </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:26">
       <c r="A29">
         <v>64044.182071501396</v>
       </c>
@@ -30188,8 +31718,11 @@
       <c r="Y29">
         <v>3.4317952574377601</v>
       </c>
+      <c r="Z29">
+        <v>4577.2328978524802</v>
+      </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:26">
       <c r="A30">
         <v>63603.306992302103</v>
       </c>
@@ -30265,8 +31798,11 @@
       <c r="Y30">
         <v>3.7318020158132499</v>
       </c>
+      <c r="Z30">
+        <v>4503.9963959861798</v>
+      </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:26">
       <c r="A31">
         <v>63535.733094211202</v>
       </c>
@@ -30342,8 +31878,11 @@
       <c r="Y31">
         <v>4.1195336791258201</v>
       </c>
+      <c r="Z31">
+        <v>4628.5480635065096</v>
+      </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:26">
       <c r="A32">
         <v>63435.536964365201</v>
       </c>
@@ -30419,8 +31958,11 @@
       <c r="Y32">
         <v>4.4162221750500201</v>
       </c>
+      <c r="Z32">
+        <v>4566.9153802969304</v>
+      </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:26">
       <c r="A33">
         <v>63385.617711921797</v>
       </c>
@@ -30496,8 +32038,11 @@
       <c r="Y33">
         <v>4.63169207544746</v>
       </c>
+      <c r="Z33">
+        <v>4544.7624300443404</v>
+      </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:26">
       <c r="A34">
         <v>57421.017765733202</v>
       </c>
@@ -30573,8 +32118,11 @@
       <c r="Y34">
         <v>5.6785716360927996</v>
       </c>
+      <c r="Z34">
+        <v>5473.4657718258404</v>
+      </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:26">
       <c r="A35">
         <v>61959.257736635402</v>
       </c>
@@ -30650,8 +32198,11 @@
       <c r="Y35">
         <v>4.6544730929866001</v>
       </c>
+      <c r="Z35">
+        <v>4634.3493284061497</v>
+      </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:26">
       <c r="A36">
         <v>62607.406561076197</v>
       </c>
@@ -30727,8 +32278,11 @@
       <c r="Y36">
         <v>4.01035444136643</v>
       </c>
+      <c r="Z36">
+        <v>4604.50349767024</v>
+      </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:26">
       <c r="A37">
         <v>61643.708296919001</v>
       </c>
@@ -30804,8 +32358,11 @@
       <c r="Y37">
         <v>3.2899508695962001</v>
       </c>
+      <c r="Z37">
+        <v>4772.7907610184902</v>
+      </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:26">
       <c r="A38">
         <v>61728.4304678072</v>
       </c>
@@ -30881,8 +32438,11 @@
       <c r="Y38">
         <v>2.6085262354366199</v>
       </c>
+      <c r="Z38">
+        <v>4652.6832759663203</v>
+      </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:26">
       <c r="A39">
         <v>61140.552701956898</v>
       </c>
@@ -30958,8 +32518,11 @@
       <c r="Y39">
         <v>2.3642882271029699</v>
       </c>
+      <c r="Z39">
+        <v>4685.1185860123196</v>
+      </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:26">
       <c r="A40">
         <v>55184.444999583597</v>
       </c>
@@ -31035,8 +32598,11 @@
       <c r="Y40">
         <v>3.6427521805035399</v>
       </c>
+      <c r="Z40">
+        <v>5586.0271507562402</v>
+      </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:26">
       <c r="A41">
         <v>59500.669249735802</v>
       </c>
@@ -31112,8 +32678,11 @@
       <c r="Y41">
         <v>2.2068612739533302</v>
       </c>
+      <c r="Z41">
+        <v>4714.9257937983803</v>
+      </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:26">
       <c r="A42">
         <v>60390.673909686797</v>
       </c>
@@ -31189,8 +32758,11 @@
       <c r="Y42">
         <v>2.7490669778828001</v>
       </c>
+      <c r="Z42">
+        <v>4728.9091925498396</v>
+      </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:26">
       <c r="A43">
         <v>59499.4282565268</v>
       </c>
@@ -31266,8 +32838,11 @@
       <c r="Y43">
         <v>3.3279826874639702</v>
       </c>
+      <c r="Z43">
+        <v>4810.6656452831203</v>
+      </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:26">
       <c r="A44">
         <v>59589.501962052898</v>
       </c>
@@ -31343,8 +32918,11 @@
       <c r="Y44">
         <v>3.5675714430600598</v>
       </c>
+      <c r="Z44">
+        <v>4691.9073272920596</v>
+      </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:26">
       <c r="A45">
         <v>60526.588701021697</v>
       </c>
@@ -31420,8 +32998,11 @@
       <c r="Y45">
         <v>3.7884125951238499</v>
       </c>
+      <c r="Z45">
+        <v>4725.6603389032498</v>
+      </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:26">
       <c r="A46">
         <v>54479.434612464203</v>
       </c>
@@ -31497,8 +33078,11 @@
       <c r="Y46">
         <v>4.4693125593474203</v>
       </c>
+      <c r="Z46">
+        <v>5680.2865330916102</v>
+      </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:26">
       <c r="A47">
         <v>59408.540032262899</v>
       </c>
@@ -31574,8 +33158,11 @@
       <c r="Y47">
         <v>3.0711828838864301</v>
       </c>
+      <c r="Z47">
+        <v>4808.8406034137397</v>
+      </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:26">
       <c r="A48">
         <v>59392.700729926997</v>
       </c>
@@ -31651,8 +33238,11 @@
       <c r="Y48">
         <v>3.00854386187528</v>
       </c>
+      <c r="Z48">
+        <v>4768.38312974166</v>
+      </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:26">
       <c r="A49">
         <v>53156.021844688403</v>
       </c>
@@ -31728,8 +33318,11 @@
       <c r="Y49">
         <v>3.95858832363183</v>
       </c>
+      <c r="Z49">
+        <v>5716.2439400102103</v>
+      </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:26">
       <c r="A50">
         <v>58135.240716797998</v>
       </c>
@@ -31805,8 +33398,11 @@
       <c r="Y50">
         <v>2.3867462117703702</v>
       </c>
+      <c r="Z50">
+        <v>4783.6119408990198</v>
+      </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:26">
       <c r="A51">
         <v>57514.387739506099</v>
       </c>
@@ -31882,8 +33478,11 @@
       <c r="Y51">
         <v>2.0699744517136498</v>
       </c>
+      <c r="Z51">
+        <v>4789.42667298383</v>
+      </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:26">
       <c r="A52">
         <v>52149.639247957202</v>
       </c>
@@ -31959,8 +33558,11 @@
       <c r="Y52">
         <v>3.20149097280262</v>
       </c>
+      <c r="Z52">
+        <v>5733.3460880148596</v>
+      </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:26">
       <c r="A53">
         <v>56888.454711814898</v>
       </c>
@@ -32036,8 +33638,11 @@
       <c r="Y53">
         <v>1.7932020926100101</v>
       </c>
+      <c r="Z53">
+        <v>4848.4925343332197</v>
+      </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:26">
       <c r="A54">
         <v>56865.440302161202</v>
       </c>
@@ -32113,8 +33718,11 @@
       <c r="Y54">
         <v>2.0278356042391499</v>
       </c>
+      <c r="Z54">
+        <v>4761.5332127172396</v>
+      </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:26">
       <c r="A55">
         <v>51273.657762802897</v>
       </c>
@@ -32190,8 +33798,11 @@
       <c r="Y55">
         <v>3.8946102998576202</v>
       </c>
+      <c r="Z55">
+        <v>5745.6082725427405</v>
+      </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:26">
       <c r="A56">
         <v>56194.312602847698</v>
       </c>
@@ -32267,8 +33878,11 @@
       <c r="Y56">
         <v>3.02530807312024</v>
       </c>
+      <c r="Z56">
+        <v>4870.6784478620302</v>
+      </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:26">
       <c r="A57">
         <v>56162.415721885598</v>
       </c>
@@ -32344,8 +33958,11 @@
       <c r="Y57">
         <v>3.0385009798973699</v>
       </c>
+      <c r="Z57">
+        <v>4855.0890254203996</v>
+      </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:26">
       <c r="A58">
         <v>50358.815560286399</v>
       </c>
@@ -32421,8 +34038,11 @@
       <c r="Y58">
         <v>3.99773951242459</v>
       </c>
+      <c r="Z58">
+        <v>5851.77936182761</v>
+      </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:26">
       <c r="A59">
         <v>55348.916162582304</v>
       </c>
@@ -32498,8 +34118,11 @@
       <c r="Y59">
         <v>2.8215687911319001</v>
       </c>
+      <c r="Z59">
+        <v>4930.3506440718902</v>
+      </c>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:26">
       <c r="A60">
         <v>54509.857838884003</v>
       </c>
@@ -32575,8 +34198,11 @@
       <c r="Y60">
         <v>2.6382043373119899</v>
       </c>
+      <c r="Z60">
+        <v>4985.0560098975502</v>
+      </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:26">
       <c r="A61">
         <v>49137.466608545903</v>
       </c>
@@ -32652,8 +34278,11 @@
       <c r="Y61">
         <v>3.4342427095141299</v>
       </c>
+      <c r="Z61">
+        <v>5985.8447866474298</v>
+      </c>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:26">
       <c r="A62">
         <v>53541.578138571502</v>
       </c>
@@ -32729,8 +34358,11 @@
       <c r="Y62">
         <v>2.0100349445094299</v>
       </c>
+      <c r="Z62">
+        <v>4991.2239418927502</v>
+      </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:26">
       <c r="A63">
         <v>53548.175153238997</v>
       </c>
@@ -32806,8 +34438,11 @@
       <c r="Y63">
         <v>1.3439471480590699</v>
       </c>
+      <c r="Z63">
+        <v>5009.4280521976798</v>
+      </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:26">
       <c r="A64">
         <v>47953.221466769297</v>
       </c>
@@ -32883,8 +34518,11 @@
       <c r="Y64">
         <v>2.7243592511407302</v>
       </c>
+      <c r="Z64">
+        <v>6018.0020810025599</v>
+      </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:26">
       <c r="A65">
         <v>52755.849211498396</v>
       </c>
@@ -32960,8 +34598,11 @@
       <c r="Y65">
         <v>1.3731548697528799</v>
       </c>
+      <c r="Z65">
+        <v>5087.7667241348599</v>
+      </c>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:26">
       <c r="A66">
         <v>53514.566548062103</v>
       </c>
@@ -33037,8 +34678,11 @@
       <c r="Y66">
         <v>1.42138623271999</v>
       </c>
+      <c r="Z66">
+        <v>4910.42711337323</v>
+      </c>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:26">
       <c r="A67">
         <v>46242.5333258338</v>
       </c>
@@ -33114,8 +34758,11 @@
       <c r="Y67">
         <v>3.7057284728378002</v>
       </c>
+      <c r="Z67">
+        <v>5902.8616495034903</v>
+      </c>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:26">
       <c r="A68">
         <v>52888.176744564997</v>
       </c>
@@ -33191,8 +34838,11 @@
       <c r="Y68">
         <v>2.4343488172949499</v>
       </c>
+      <c r="Z68">
+        <v>4871.54042854612</v>
+      </c>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:26">
       <c r="A69">
         <v>52549.205349687203</v>
       </c>
@@ -33268,8 +34918,11 @@
       <c r="Y69">
         <v>2.2502684278912701</v>
       </c>
+      <c r="Z69">
+        <v>4861.1023329455002</v>
+      </c>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:26">
       <c r="A70">
         <v>46891.262859530398</v>
       </c>
@@ -33345,8 +34998,11 @@
       <c r="Y70">
         <v>3.1851555973643402</v>
       </c>
+      <c r="Z70">
+        <v>5945.8380657878697</v>
+      </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:26">
       <c r="A71">
         <v>52371.863397119399</v>
       </c>
@@ -33422,8 +35078,11 @@
       <c r="Y71">
         <v>1.7496864205620699</v>
       </c>
+      <c r="Z71">
+        <v>4917.1868193174696</v>
+      </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:26">
       <c r="A72">
         <v>51624.278014418996</v>
       </c>
@@ -33499,8 +35158,11 @@
       <c r="Y72">
         <v>1.4893792629463201</v>
       </c>
+      <c r="Z72">
+        <v>4858.48188160274</v>
+      </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:26">
       <c r="A73">
         <v>45787.923149377501</v>
       </c>
@@ -33576,8 +35238,11 @@
       <c r="Y73">
         <v>2.5511326601031099</v>
       </c>
+      <c r="Z73">
+        <v>5940.9668983751799</v>
+      </c>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:26">
       <c r="A74">
         <v>50212.076664147797</v>
       </c>
@@ -33653,8 +35318,11 @@
       <c r="Y74">
         <v>0.71504892411589005</v>
       </c>
+      <c r="Z74">
+        <v>4901.4146027017996</v>
+      </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:26">
       <c r="A75">
         <v>50368.307051308497</v>
       </c>
@@ -33730,8 +35398,11 @@
       <c r="Y75">
         <v>0.238139669680907</v>
       </c>
+      <c r="Z75">
+        <v>4897.2488684075197</v>
+      </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:26">
       <c r="A76">
         <v>44823.548214020702</v>
       </c>
@@ -33807,8 +35478,11 @@
       <c r="Y76">
         <v>1.97334328052663</v>
       </c>
+      <c r="Z76">
+        <v>5917.6121003428198</v>
+      </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:26">
       <c r="A77">
         <v>49577.292720929901</v>
       </c>
@@ -33884,8 +35558,11 @@
       <c r="Y77">
         <v>-8.7368878407610304E-2</v>
       </c>
+      <c r="Z77">
+        <v>4910.7388096512996</v>
+      </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:26">
       <c r="A78">
         <v>50413.089961625003</v>
       </c>
@@ -33961,8 +35638,11 @@
       <c r="Y78">
         <v>0.51941620866347604</v>
       </c>
+      <c r="Z78">
+        <v>4746.9864110489098</v>
+      </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:26">
       <c r="A79">
         <v>44516.9089376638</v>
       </c>
@@ -34038,8 +35718,11 @@
       <c r="Y79">
         <v>2.5610342837715199</v>
       </c>
+      <c r="Z79">
+        <v>5811.2109308962399</v>
+      </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:26">
       <c r="A80">
         <v>50757.847849682097</v>
       </c>
@@ -34115,8 +35798,11 @@
       <c r="Y80">
         <v>0.824942992877431</v>
       </c>
+      <c r="Z80">
+        <v>4768.2883073443099</v>
+      </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:26">
       <c r="A81">
         <v>50917.386725906203</v>
       </c>
@@ -34192,8 +35878,11 @@
       <c r="Y81">
         <v>0.88058612476810905</v>
       </c>
+      <c r="Z81">
+        <v>4643.1556593178802</v>
+      </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:26">
       <c r="A82">
         <v>44809.691167026598</v>
       </c>
@@ -34269,8 +35958,11 @@
       <c r="Y82">
         <v>1.8713576428566401</v>
       </c>
+      <c r="Z82">
+        <v>5783.4821072979403</v>
+      </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:26">
       <c r="A83">
         <v>49957.332957825798</v>
       </c>
@@ -34346,8 +36038,11 @@
       <c r="Y83">
         <v>0.534647219431857</v>
       </c>
+      <c r="Z83">
+        <v>4773.1107103368104</v>
+      </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:26">
       <c r="A84">
         <v>50586.157798165099</v>
       </c>
@@ -34423,8 +36118,11 @@
       <c r="Y84">
         <v>1.6669015508643699E-2</v>
       </c>
+      <c r="Z84">
+        <v>4590.8106327453997</v>
+      </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:26">
       <c r="A85">
         <v>44321.507943040502</v>
       </c>
@@ -34499,6 +36197,9 @@
       </c>
       <c r="Y85">
         <v>1.47731305615562</v>
+      </c>
+      <c r="Z85">
+        <v>5766.5703777359304</v>
       </c>
     </row>
   </sheetData>
@@ -34514,15 +36215,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y85"/>
+  <dimension ref="A1:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N10" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:X1048576"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -34598,8 +36299,11 @@
       <c r="Y1" t="s">
         <v>97</v>
       </c>
+      <c r="Z1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>58371.936477838302</v>
       </c>
@@ -34675,8 +36379,11 @@
       <c r="Y2">
         <v>10.807243513033301</v>
       </c>
+      <c r="Z2">
+        <v>2372.4143717279298</v>
+      </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>58891.846238850703</v>
       </c>
@@ -34752,8 +36459,11 @@
       <c r="Y3">
         <v>10.064830538303401</v>
       </c>
+      <c r="Z3">
+        <v>1615.2057196350299</v>
+      </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>55341.951844756499</v>
       </c>
@@ -34829,8 +36539,11 @@
       <c r="Y4">
         <v>10.233512002401399</v>
       </c>
+      <c r="Z4">
+        <v>3392.1650276928299</v>
+      </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>59324.657640232101</v>
       </c>
@@ -34906,8 +36619,11 @@
       <c r="Y5">
         <v>9.6742819784833607</v>
       </c>
+      <c r="Z5">
+        <v>3703.1385985530201</v>
+      </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>60083.1934750215</v>
       </c>
@@ -34983,8 +36699,11 @@
       <c r="Y6">
         <v>10.079734584014799</v>
       </c>
+      <c r="Z6">
+        <v>3828.8194668536798</v>
+      </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>61043.1368912381</v>
       </c>
@@ -35060,8 +36779,11 @@
       <c r="Y7">
         <v>11.8110761089346</v>
       </c>
+      <c r="Z7">
+        <v>3988.4037531570698</v>
+      </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>60696.358897644997</v>
       </c>
@@ -35137,8 +36859,11 @@
       <c r="Y8">
         <v>12.604324588086399</v>
       </c>
+      <c r="Z8">
+        <v>4082.9682928338402</v>
+      </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>61615.5286326571</v>
       </c>
@@ -35214,8 +36939,11 @@
       <c r="Y9">
         <v>13.6632152184117</v>
       </c>
+      <c r="Z9">
+        <v>4126.9796182289601</v>
+      </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>56889.344753633202</v>
       </c>
@@ -35291,8 +37019,11 @@
       <c r="Y10">
         <v>15.827365808744499</v>
       </c>
+      <c r="Z10">
+        <v>4846.3806481279598</v>
+      </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>61644.715164522902</v>
       </c>
@@ -35368,8 +37099,11 @@
       <c r="Y11">
         <v>15.4040551431653</v>
       </c>
+      <c r="Z11">
+        <v>4294.1120686079503</v>
+      </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>61587.184057772203</v>
       </c>
@@ -35445,8 +37179,11 @@
       <c r="Y12">
         <v>15.301076960541099</v>
       </c>
+      <c r="Z12">
+        <v>4269.4372780185304</v>
+      </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>62330.405801017798</v>
       </c>
@@ -35522,8 +37259,11 @@
       <c r="Y13">
         <v>15.1562917441367</v>
       </c>
+      <c r="Z13">
+        <v>4356.1671891973501</v>
+      </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>62354.1118643558</v>
       </c>
@@ -35599,8 +37339,11 @@
       <c r="Y14">
         <v>15.478822206131399</v>
       </c>
+      <c r="Z14">
+        <v>4350.8783684149803</v>
+      </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:26">
       <c r="A15">
         <v>61844.9621766899</v>
       </c>
@@ -35676,8 +37419,11 @@
       <c r="Y15">
         <v>15.9801964416607</v>
       </c>
+      <c r="Z15">
+        <v>4330.5943811677798</v>
+      </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:26">
       <c r="A16">
         <v>56465.164859253899</v>
       </c>
@@ -35753,8 +37499,11 @@
       <c r="Y16">
         <v>17.330810703979001</v>
       </c>
+      <c r="Z16">
+        <v>5092.27773955047</v>
+      </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:26">
       <c r="A17">
         <v>62726.711485092601</v>
       </c>
@@ -35830,8 +37579,11 @@
       <c r="Y17">
         <v>17.468079843572401</v>
       </c>
+      <c r="Z17">
+        <v>4412.8331783930198</v>
+      </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:26">
       <c r="A18">
         <v>63331.112288937598</v>
       </c>
@@ -35907,8 +37659,11 @@
       <c r="Y18">
         <v>18.4503310260286</v>
       </c>
+      <c r="Z18">
+        <v>4327.6277112528196</v>
+      </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:26">
       <c r="A19">
         <v>63194.529640989102</v>
       </c>
@@ -35984,8 +37739,11 @@
       <c r="Y19">
         <v>20.218193086812501</v>
       </c>
+      <c r="Z19">
+        <v>4432.9145428867996</v>
+      </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:26">
       <c r="A20">
         <v>63208.963451882497</v>
       </c>
@@ -36061,8 +37819,11 @@
       <c r="Y20">
         <v>21.7629387743564</v>
       </c>
+      <c r="Z20">
+        <v>4402.6298572019004</v>
+      </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:26">
       <c r="A21">
         <v>63357.282509738303</v>
       </c>
@@ -36138,8 +37899,11 @@
       <c r="Y21">
         <v>24.037032561470198</v>
       </c>
+      <c r="Z21">
+        <v>4385.8477982679397</v>
+      </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:26">
       <c r="A22">
         <v>56985.922605895998</v>
       </c>
@@ -36215,8 +37979,11 @@
       <c r="Y22">
         <v>26.105680883383201</v>
       </c>
+      <c r="Z22">
+        <v>5207.6560365565101</v>
+      </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:26">
       <c r="A23">
         <v>62413.886556787802</v>
       </c>
@@ -36292,8 +38059,11 @@
       <c r="Y23">
         <v>26.410879818019399</v>
       </c>
+      <c r="Z23">
+        <v>4448.74855522494</v>
+      </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:26">
       <c r="A24">
         <v>62241.029790364097</v>
       </c>
@@ -36369,8 +38139,11 @@
       <c r="Y24">
         <v>26.3746344113455</v>
       </c>
+      <c r="Z24">
+        <v>4455.7262475546104</v>
+      </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:26">
       <c r="A25">
         <v>63316.228203238898</v>
       </c>
@@ -36446,8 +38219,11 @@
       <c r="Y25">
         <v>25.6472347194068</v>
       </c>
+      <c r="Z25">
+        <v>4562.96828452503</v>
+      </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:26">
       <c r="A26">
         <v>63176.154059863402</v>
       </c>
@@ -36523,8 +38299,11 @@
       <c r="Y26">
         <v>24.398088579381898</v>
       </c>
+      <c r="Z26">
+        <v>4485.0847384717799</v>
+      </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:26">
       <c r="A27">
         <v>62472.376378252498</v>
       </c>
@@ -36600,8 +38379,11 @@
       <c r="Y27">
         <v>23.359339941234001</v>
       </c>
+      <c r="Z27">
+        <v>4489.9715703688598</v>
+      </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:26">
       <c r="A28">
         <v>57572.7947946719</v>
       </c>
@@ -36677,8 +38459,11 @@
       <c r="Y28">
         <v>24.104472198373301</v>
       </c>
+      <c r="Z28">
+        <v>5347.8093598364803</v>
+      </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:26">
       <c r="A29">
         <v>64044.182071501396</v>
       </c>
@@ -36754,8 +38539,11 @@
       <c r="Y29">
         <v>22.497139896239801</v>
       </c>
+      <c r="Z29">
+        <v>4577.2328978524802</v>
+      </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:26">
       <c r="A30">
         <v>63603.306992302103</v>
       </c>
@@ -36831,8 +38619,11 @@
       <c r="Y30">
         <v>22.424695135983502</v>
       </c>
+      <c r="Z30">
+        <v>4503.9963959861798</v>
+      </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:26">
       <c r="A31">
         <v>63535.733094211202</v>
       </c>
@@ -36908,8 +38699,11 @@
       <c r="Y31">
         <v>23.364942643860498</v>
       </c>
+      <c r="Z31">
+        <v>4628.5480635065096</v>
+      </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:26">
       <c r="A32">
         <v>63435.536964365201</v>
       </c>
@@ -36985,8 +38779,11 @@
       <c r="Y32">
         <v>24.7266512600354</v>
       </c>
+      <c r="Z32">
+        <v>4566.9153802969304</v>
+      </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:26">
       <c r="A33">
         <v>63385.617711921797</v>
       </c>
@@ -37062,8 +38859,11 @@
       <c r="Y33">
         <v>26.314020424485101</v>
       </c>
+      <c r="Z33">
+        <v>4544.7624300443404</v>
+      </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:26">
       <c r="A34">
         <v>57421.017765733202</v>
       </c>
@@ -37139,8 +38939,11 @@
       <c r="Y34">
         <v>28.442917359213499</v>
       </c>
+      <c r="Z34">
+        <v>5473.4657718258404</v>
+      </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:26">
       <c r="A35">
         <v>61959.257736635402</v>
       </c>
@@ -37216,8 +39019,11 @@
       <c r="Y35">
         <v>29.1005522296281</v>
       </c>
+      <c r="Z35">
+        <v>4634.3493284061497</v>
+      </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:26">
       <c r="A36">
         <v>62607.406561076197</v>
       </c>
@@ -37293,8 +39099,11 @@
       <c r="Y36">
         <v>29.0924595095012</v>
       </c>
+      <c r="Z36">
+        <v>4604.50349767024</v>
+      </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:26">
       <c r="A37">
         <v>61643.708296919001</v>
       </c>
@@ -37370,8 +39179,11 @@
       <c r="Y37">
         <v>28.240415197979001</v>
       </c>
+      <c r="Z37">
+        <v>4772.7907610184902</v>
+      </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:26">
       <c r="A38">
         <v>61728.4304678072</v>
       </c>
@@ -37447,8 +39259,11 @@
       <c r="Y38">
         <v>26.897033053157099</v>
       </c>
+      <c r="Z38">
+        <v>4652.6832759663203</v>
+      </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:26">
       <c r="A39">
         <v>61140.552701956898</v>
       </c>
@@ -37524,8 +39339,11 @@
       <c r="Y39">
         <v>25.781620106091001</v>
       </c>
+      <c r="Z39">
+        <v>4685.1185860123196</v>
+      </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:26">
       <c r="A40">
         <v>55184.444999583597</v>
       </c>
@@ -37601,8 +39419,11 @@
       <c r="Y40">
         <v>26.2666953219071</v>
       </c>
+      <c r="Z40">
+        <v>5586.0271507562402</v>
+      </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:26">
       <c r="A41">
         <v>59500.669249735802</v>
       </c>
@@ -37678,8 +39499,11 @@
       <c r="Y41">
         <v>24.907900321791001</v>
       </c>
+      <c r="Z41">
+        <v>4714.9257937983803</v>
+      </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:26">
       <c r="A42">
         <v>60390.673909686797</v>
       </c>
@@ -37755,8 +39579,11 @@
       <c r="Y42">
         <v>25.3766525497408</v>
       </c>
+      <c r="Z42">
+        <v>4728.9091925498396</v>
+      </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:26">
       <c r="A43">
         <v>59499.4282565268</v>
       </c>
@@ -37832,8 +39659,11 @@
       <c r="Y43">
         <v>26.799592668618299</v>
       </c>
+      <c r="Z43">
+        <v>4810.6656452831203</v>
+      </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:26">
       <c r="A44">
         <v>59589.501962052898</v>
       </c>
@@ -37909,8 +39739,11 @@
       <c r="Y44">
         <v>28.119225683885499</v>
       </c>
+      <c r="Z44">
+        <v>4691.9073272920596</v>
+      </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:26">
       <c r="A45">
         <v>60526.588701021697</v>
       </c>
@@ -37986,8 +39819,11 @@
       <c r="Y45">
         <v>29.6149539519492</v>
       </c>
+      <c r="Z45">
+        <v>4725.6603389032498</v>
+      </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:26">
       <c r="A46">
         <v>54479.434612464203</v>
       </c>
@@ -38063,8 +39899,11 @@
       <c r="Y46">
         <v>31.3877469165637</v>
       </c>
+      <c r="Z46">
+        <v>5680.2865330916102</v>
+      </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:26">
       <c r="A47">
         <v>59408.540032262899</v>
       </c>
@@ -38140,8 +39979,11 @@
       <c r="Y47">
         <v>30.8671509994644</v>
       </c>
+      <c r="Z47">
+        <v>4808.8406034137397</v>
+      </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:26">
       <c r="A48">
         <v>59392.700729926997</v>
       </c>
@@ -38217,8 +40059,11 @@
       <c r="Y48">
         <v>30.878364967041399</v>
       </c>
+      <c r="Z48">
+        <v>4768.38312974166</v>
+      </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:26">
       <c r="A49">
         <v>53156.021844688403</v>
       </c>
@@ -38294,8 +40139,11 @@
       <c r="Y49">
         <v>31.947878308541299</v>
       </c>
+      <c r="Z49">
+        <v>5716.2439400102103</v>
+      </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:26">
       <c r="A50">
         <v>58135.240716797998</v>
       </c>
@@ -38371,8 +40219,11 @@
       <c r="Y50">
         <v>30.693461729086899</v>
       </c>
+      <c r="Z50">
+        <v>4783.6119408990198</v>
+      </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:26">
       <c r="A51">
         <v>57514.387739506099</v>
       </c>
@@ -38448,8 +40299,11 @@
       <c r="Y51">
         <v>29.804370563250899</v>
       </c>
+      <c r="Z51">
+        <v>4789.42667298383</v>
+      </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:26">
       <c r="A52">
         <v>52149.639247957202</v>
       </c>
@@ -38525,8 +40379,11 @@
       <c r="Y52">
         <v>30.638082903224799</v>
       </c>
+      <c r="Z52">
+        <v>5733.3460880148596</v>
+      </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:26">
       <c r="A53">
         <v>56888.454711814898</v>
       </c>
@@ -38602,8 +40459,11 @@
       <c r="Y53">
         <v>29.272521229205999</v>
       </c>
+      <c r="Z53">
+        <v>4848.4925343332197</v>
+      </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:26">
       <c r="A54">
         <v>56865.440302161202</v>
       </c>
@@ -38679,8 +40539,11 @@
       <c r="Y54">
         <v>28.8588550630136</v>
       </c>
+      <c r="Z54">
+        <v>4761.5332127172396</v>
+      </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:26">
       <c r="A55">
         <v>51273.657762802897</v>
       </c>
@@ -38756,8 +40619,11 @@
       <c r="Y55">
         <v>31.557428759387001</v>
       </c>
+      <c r="Z55">
+        <v>5745.6082725427405</v>
+      </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:26">
       <c r="A56">
         <v>56194.312602847698</v>
       </c>
@@ -38833,8 +40699,11 @@
       <c r="Y56">
         <v>32.073177160757801</v>
       </c>
+      <c r="Z56">
+        <v>4870.6784478620302</v>
+      </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:26">
       <c r="A57">
         <v>56162.415721885598</v>
       </c>
@@ -38910,8 +40779,11 @@
       <c r="Y57">
         <v>33.0891403072606</v>
       </c>
+      <c r="Z57">
+        <v>4855.0890254203996</v>
+      </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:26">
       <c r="A58">
         <v>50358.815560286399</v>
       </c>
@@ -38987,8 +40859,11 @@
       <c r="Y58">
         <v>35.2178922088181</v>
       </c>
+      <c r="Z58">
+        <v>5851.77936182761</v>
+      </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:26">
       <c r="A59">
         <v>55348.916162582304</v>
       </c>
@@ -39064,8 +40939,11 @@
       <c r="Y59">
         <v>35.079059566414799</v>
       </c>
+      <c r="Z59">
+        <v>4930.3506440718902</v>
+      </c>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:26">
       <c r="A60">
         <v>54509.857838884003</v>
       </c>
@@ -39141,8 +41019,11 @@
       <c r="Y60">
         <v>35.3675895554805</v>
       </c>
+      <c r="Z60">
+        <v>4985.0560098975502</v>
+      </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:26">
       <c r="A61">
         <v>49137.466608545903</v>
       </c>
@@ -39218,8 +41099,11 @@
       <c r="Y61">
         <v>36.701776070069499</v>
       </c>
+      <c r="Z61">
+        <v>5985.8447866474298</v>
+      </c>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:26">
       <c r="A62">
         <v>53541.578138571502</v>
       </c>
@@ -39295,8 +41179,11 @@
       <c r="Y62">
         <v>35.599037450954</v>
       </c>
+      <c r="Z62">
+        <v>4991.2239418927502</v>
+      </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:26">
       <c r="A63">
         <v>53548.175153238997</v>
       </c>
@@ -39372,8 +41259,11 @@
       <c r="Y63">
         <v>34.007534132216698</v>
       </c>
+      <c r="Z63">
+        <v>5009.4280521976798</v>
+      </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:26">
       <c r="A64">
         <v>47953.221466769297</v>
       </c>
@@ -39449,8 +41339,11 @@
       <c r="Y64">
         <v>35.127475217581001</v>
       </c>
+      <c r="Z64">
+        <v>6018.0020810025599</v>
+      </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:26">
       <c r="A65">
         <v>52755.849211498396</v>
       </c>
@@ -39526,8 +41419,11 @@
       <c r="Y65">
         <v>33.684554542926399</v>
       </c>
+      <c r="Z65">
+        <v>5087.7667241348599</v>
+      </c>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:26">
       <c r="A66">
         <v>53514.566548062103</v>
       </c>
@@ -39603,8 +41499,11 @@
       <c r="Y66">
         <v>33.125437163332897</v>
       </c>
+      <c r="Z66">
+        <v>4910.42711337323</v>
+      </c>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:26">
       <c r="A67">
         <v>46242.5333258338</v>
       </c>
@@ -39680,8 +41579,11 @@
       <c r="Y67">
         <v>36.697573201807899</v>
       </c>
+      <c r="Z67">
+        <v>5902.8616495034903</v>
+      </c>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:26">
       <c r="A68">
         <v>52888.176744564997</v>
       </c>
@@ -39757,8 +41659,11 @@
       <c r="Y68">
         <v>36.534880703922099</v>
       </c>
+      <c r="Z68">
+        <v>4871.54042854612</v>
+      </c>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:26">
       <c r="A69">
         <v>52549.205349687203</v>
       </c>
@@ -39834,8 +41739,11 @@
       <c r="Y69">
         <v>36.493276067948202</v>
       </c>
+      <c r="Z69">
+        <v>4861.1023329455002</v>
+      </c>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:26">
       <c r="A70">
         <v>46891.262859530398</v>
       </c>
@@ -39911,8 +41819,11 @@
       <c r="Y70">
         <v>37.990083966286598</v>
       </c>
+      <c r="Z70">
+        <v>5945.8380657878697</v>
+      </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:26">
       <c r="A71">
         <v>52371.863397119399</v>
       </c>
@@ -39988,8 +41899,11 @@
       <c r="Y71">
         <v>36.720292760149498</v>
       </c>
+      <c r="Z71">
+        <v>4917.1868193174696</v>
+      </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:26">
       <c r="A72">
         <v>51624.278014418996</v>
       </c>
@@ -40065,8 +41979,11 @@
       <c r="Y72">
         <v>35.904703454417898</v>
       </c>
+      <c r="Z72">
+        <v>4858.48188160274</v>
+      </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:26">
       <c r="A73">
         <v>45787.923149377501</v>
       </c>
@@ -40142,8 +42059,11 @@
       <c r="Y73">
         <v>37.1652415013723</v>
       </c>
+      <c r="Z73">
+        <v>5940.9668983751799</v>
+      </c>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:26">
       <c r="A74">
         <v>50212.076664147797</v>
       </c>
@@ -40219,8 +42139,11 @@
       <c r="Y74">
         <v>34.946216084202703</v>
       </c>
+      <c r="Z74">
+        <v>4901.4146027017996</v>
+      </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:26">
       <c r="A75">
         <v>50368.307051308497</v>
       </c>
@@ -40296,8 +42219,11 @@
       <c r="Y75">
         <v>33.370772991248899</v>
       </c>
+      <c r="Z75">
+        <v>4897.2488684075197</v>
+      </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:26">
       <c r="A76">
         <v>44823.548214020702</v>
       </c>
@@ -40373,8 +42299,11 @@
       <c r="Y76">
         <v>35.368380761667702</v>
       </c>
+      <c r="Z76">
+        <v>5917.6121003428198</v>
+      </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:26">
       <c r="A77">
         <v>49577.292720929901</v>
       </c>
@@ -40450,8 +42379,11 @@
       <c r="Y77">
         <v>33.262618700235699</v>
       </c>
+      <c r="Z77">
+        <v>4910.7388096512996</v>
+      </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:26">
       <c r="A78">
         <v>50413.089961625003</v>
       </c>
@@ -40527,8 +42459,11 @@
       <c r="Y78">
         <v>33.066107402323198</v>
       </c>
+      <c r="Z78">
+        <v>4746.9864110489098</v>
+      </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:26">
       <c r="A79">
         <v>44516.9089376638</v>
       </c>
@@ -40604,8 +42539,11 @@
       <c r="Y79">
         <v>36.444339062743403</v>
       </c>
+      <c r="Z79">
+        <v>5811.2109308962399</v>
+      </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:26">
       <c r="A80">
         <v>50757.847849682097</v>
       </c>
@@ -40681,8 +42619,11 @@
       <c r="Y80">
         <v>35.227937804013301</v>
       </c>
+      <c r="Z80">
+        <v>4768.2883073443099</v>
+      </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:26">
       <c r="A81">
         <v>50917.386725906203</v>
       </c>
@@ -40758,8 +42699,11 @@
       <c r="Y81">
         <v>34.955210115427903</v>
       </c>
+      <c r="Z81">
+        <v>4643.1556593178802</v>
+      </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:26">
       <c r="A82">
         <v>44809.691167026598</v>
       </c>
@@ -40835,8 +42779,11 @@
       <c r="Y82">
         <v>36.363113786285801</v>
       </c>
+      <c r="Z82">
+        <v>5783.4821072979403</v>
+      </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:26">
       <c r="A83">
         <v>49957.332957825798</v>
       </c>
@@ -40912,8 +42859,11 @@
       <c r="Y83">
         <v>35.369863022628003</v>
       </c>
+      <c r="Z83">
+        <v>4773.1107103368104</v>
+      </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:26">
       <c r="A84">
         <v>50586.157798165099</v>
       </c>
@@ -40989,8 +42939,11 @@
       <c r="Y84">
         <v>34.368248261727302</v>
       </c>
+      <c r="Z84">
+        <v>4590.8106327453997</v>
+      </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:26">
       <c r="A85">
         <v>44321.507943040502</v>
       </c>
@@ -41065,6 +43018,9 @@
       </c>
       <c r="Y85">
         <v>36.187689145323397</v>
+      </c>
+      <c r="Z85">
+        <v>5766.5703777359304</v>
       </c>
     </row>
   </sheetData>

--- a/extensions/icdm2016/doc-Experiments/RecapExperiments.xlsx
+++ b/extensions/icdm2016/doc-Experiments/RecapExperiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="8000" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="22220" tabRatio="576" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CajaMar" sheetId="1" r:id="rId1"/>
@@ -452,8 +452,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -520,7 +534,7 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -550,6 +564,13 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -579,6 +600,13 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -22217,172 +22245,172 @@
                   <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="18">
                   <c:v>2.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>3.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="20">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
                   <c:v>7.0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
                   <c:v>8.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="24">
                   <c:v>9.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="25">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>12.0</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="27">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="28">
                   <c:v>2.0</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="29">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>4.0</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="31">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="32">
                   <c:v>7.0</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="33">
                   <c:v>8.0</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="34">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>10.0</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="36">
                   <c:v>12.0</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="37">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="38">
                   <c:v>3.0</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="39">
                   <c:v>4.0</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="40">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="41">
                   <c:v>7.0</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="42">
                   <c:v>9.0</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="43">
                   <c:v>10.0</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="44">
                   <c:v>12.0</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="45">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>3.0</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="47">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>9.0</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>12.0</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="53">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>4.0</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>7.0</c:v>
                 </c:pt>
-                <c:pt idx="53">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>10.0</c:v>
                 </c:pt>
-                <c:pt idx="55">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="60">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>9.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25029,16 +25057,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25059,16 +25087,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30295,7 +30323,7 @@
   <dimension ref="A1:AC151"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2:AC85"/>
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -30463,7 +30491,7 @@
         <v>1</v>
       </c>
       <c r="AB2">
-        <f>MOD((AA2+3),13)</f>
+        <f>MOD((AA2+2),12)+1</f>
         <v>4</v>
       </c>
       <c r="AC2">
@@ -30553,7 +30581,7 @@
         <v>2</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB66" si="0">MOD((AA3+3),13)</f>
+        <f t="shared" ref="AB3:AB66" si="0">MOD((AA3+2),12)+1</f>
         <v>5</v>
       </c>
       <c r="AC3">
@@ -31274,7 +31302,7 @@
       </c>
       <c r="AB11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11">
         <v>2008</v>
@@ -31364,7 +31392,7 @@
       </c>
       <c r="AB12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC12">
         <v>2008</v>
@@ -31454,7 +31482,7 @@
       </c>
       <c r="AB13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC13">
         <v>2008</v>
@@ -31544,7 +31572,7 @@
       </c>
       <c r="AB14">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC14">
         <v>2008</v>
@@ -31634,7 +31662,7 @@
       </c>
       <c r="AB15">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC15">
         <v>2008</v>
@@ -31724,7 +31752,7 @@
       </c>
       <c r="AB16">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC16">
         <v>2008</v>
@@ -31814,7 +31842,7 @@
       </c>
       <c r="AB17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC17">
         <v>2008</v>
@@ -31904,7 +31932,7 @@
       </c>
       <c r="AB18">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC18">
         <v>2008</v>
@@ -31994,7 +32022,7 @@
       </c>
       <c r="AB19">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC19">
         <v>2008</v>
@@ -32084,7 +32112,7 @@
       </c>
       <c r="AB20">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC20">
         <v>2008</v>
@@ -32174,7 +32202,7 @@
       </c>
       <c r="AB21">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC21">
         <v>2008</v>
@@ -32264,7 +32292,7 @@
       </c>
       <c r="AB22">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC22">
         <v>2008</v>
@@ -32354,7 +32382,7 @@
       </c>
       <c r="AB23">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AC23">
         <v>2008</v>
@@ -32444,7 +32472,7 @@
       </c>
       <c r="AB24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC24">
         <v>2009</v>
@@ -32534,7 +32562,7 @@
       </c>
       <c r="AB25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC25">
         <v>2009</v>
@@ -32624,7 +32652,7 @@
       </c>
       <c r="AB26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC26">
         <v>2009</v>
@@ -32714,7 +32742,7 @@
       </c>
       <c r="AB27">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC27">
         <v>2009</v>
@@ -32804,7 +32832,7 @@
       </c>
       <c r="AB28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC28">
         <v>2009</v>
@@ -32894,7 +32922,7 @@
       </c>
       <c r="AB29">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC29">
         <v>2009</v>
@@ -32984,7 +33012,7 @@
       </c>
       <c r="AB30">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC30">
         <v>2009</v>
@@ -33074,7 +33102,7 @@
       </c>
       <c r="AB31">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AC31">
         <v>2009</v>
@@ -33164,7 +33192,7 @@
       </c>
       <c r="AB32">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AC32">
         <v>2009</v>
@@ -33254,7 +33282,7 @@
       </c>
       <c r="AB33">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AC33">
         <v>2009</v>
@@ -33344,7 +33372,7 @@
       </c>
       <c r="AB34">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AC34">
         <v>2009</v>
@@ -33434,7 +33462,7 @@
       </c>
       <c r="AB35">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AC35">
         <v>2009</v>
@@ -33524,7 +33552,7 @@
       </c>
       <c r="AB36">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AC36">
         <v>2009</v>
@@ -33614,7 +33642,7 @@
       </c>
       <c r="AB37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC37">
         <v>2010</v>
@@ -33704,7 +33732,7 @@
       </c>
       <c r="AB38">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC38">
         <v>2010</v>
@@ -33794,7 +33822,7 @@
       </c>
       <c r="AB39">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC39">
         <v>2010</v>
@@ -33884,7 +33912,7 @@
       </c>
       <c r="AB40">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC40">
         <v>2010</v>
@@ -33974,7 +34002,7 @@
       </c>
       <c r="AB41">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AC41">
         <v>2010</v>
@@ -34064,7 +34092,7 @@
       </c>
       <c r="AB42">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AC42">
         <v>2010</v>
@@ -34154,7 +34182,7 @@
       </c>
       <c r="AB43">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AC43">
         <v>2010</v>
@@ -34244,7 +34272,7 @@
       </c>
       <c r="AB44">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AC44">
         <v>2010</v>
@@ -34334,7 +34362,7 @@
       </c>
       <c r="AB45">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AC45">
         <v>2010</v>
@@ -34424,7 +34452,7 @@
       </c>
       <c r="AB46">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AC46">
         <v>2010</v>
@@ -34514,7 +34542,7 @@
       </c>
       <c r="AB47">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AC47">
         <v>2010</v>
@@ -34604,7 +34632,7 @@
       </c>
       <c r="AB48">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AC48">
         <v>2010</v>
@@ -34694,7 +34722,7 @@
       </c>
       <c r="AB49">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AC49">
         <v>2010</v>
@@ -34784,7 +34812,7 @@
       </c>
       <c r="AB50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC50">
         <v>2011</v>
@@ -34874,7 +34902,7 @@
       </c>
       <c r="AB51">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC51">
         <v>2011</v>
@@ -34964,7 +34992,7 @@
       </c>
       <c r="AB52">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AC52">
         <v>2011</v>
@@ -35054,7 +35082,7 @@
       </c>
       <c r="AB53">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AC53">
         <v>2011</v>
@@ -35144,7 +35172,7 @@
       </c>
       <c r="AB54">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AC54">
         <v>2011</v>
@@ -35234,7 +35262,7 @@
       </c>
       <c r="AB55">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AC55">
         <v>2011</v>
@@ -35324,7 +35352,7 @@
       </c>
       <c r="AB56">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AC56">
         <v>2011</v>
@@ -35414,7 +35442,7 @@
       </c>
       <c r="AB57">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AC57">
         <v>2011</v>
@@ -35504,7 +35532,7 @@
       </c>
       <c r="AB58">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AC58">
         <v>2011</v>
@@ -35594,7 +35622,7 @@
       </c>
       <c r="AB59">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AC59">
         <v>2011</v>
@@ -35684,7 +35712,7 @@
       </c>
       <c r="AB60">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AC60">
         <v>2011</v>
@@ -35774,7 +35802,7 @@
       </c>
       <c r="AB61">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AC61">
         <v>2011</v>
@@ -35864,7 +35892,7 @@
       </c>
       <c r="AB62">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AC62">
         <v>2011</v>
@@ -35954,7 +35982,7 @@
       </c>
       <c r="AB63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC63">
         <v>2012</v>
@@ -36044,7 +36072,7 @@
       </c>
       <c r="AB64">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AC64">
         <v>2012</v>
@@ -36134,7 +36162,7 @@
       </c>
       <c r="AB65">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AC65">
         <v>2012</v>
@@ -36224,7 +36252,7 @@
       </c>
       <c r="AB66">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AC66">
         <v>2012</v>
@@ -36313,8 +36341,8 @@
         <v>66</v>
       </c>
       <c r="AB67">
-        <f t="shared" ref="AB67:AB85" si="1">MOD((AA67+3),13)</f>
-        <v>4</v>
+        <f t="shared" ref="AB67:AB85" si="1">MOD((AA67+2),12)+1</f>
+        <v>9</v>
       </c>
       <c r="AC67">
         <v>2012</v>
@@ -36404,7 +36432,7 @@
       </c>
       <c r="AB68">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC68">
         <v>2012</v>
@@ -36494,7 +36522,7 @@
       </c>
       <c r="AB69">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AC69">
         <v>2012</v>
@@ -36584,7 +36612,7 @@
       </c>
       <c r="AB70">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AC70">
         <v>2012</v>
@@ -36674,7 +36702,7 @@
       </c>
       <c r="AB71">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AC71">
         <v>2012</v>
@@ -36764,7 +36792,7 @@
       </c>
       <c r="AB72">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AC72">
         <v>2012</v>
@@ -36854,7 +36882,7 @@
       </c>
       <c r="AB73">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AC73">
         <v>2012</v>
@@ -36944,7 +36972,7 @@
       </c>
       <c r="AB74">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AC74">
         <v>2012</v>
@@ -37034,7 +37062,7 @@
       </c>
       <c r="AB75">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AC75">
         <v>2012</v>
@@ -37124,7 +37152,7 @@
       </c>
       <c r="AB76">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC76">
         <v>2013</v>
@@ -37214,7 +37242,7 @@
       </c>
       <c r="AB77">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC77">
         <v>2013</v>
@@ -37304,7 +37332,7 @@
       </c>
       <c r="AB78">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AC78">
         <v>2013</v>
@@ -37394,7 +37422,7 @@
       </c>
       <c r="AB79">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AC79">
         <v>2013</v>
@@ -37484,7 +37512,7 @@
       </c>
       <c r="AB80">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AC80">
         <v>2013</v>
@@ -37574,7 +37602,7 @@
       </c>
       <c r="AB81">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AC81">
         <v>2013</v>
@@ -37664,7 +37692,7 @@
       </c>
       <c r="AB82">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AC82">
         <v>2013</v>
@@ -37754,7 +37782,7 @@
       </c>
       <c r="AB83">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AC83">
         <v>2013</v>
@@ -37844,7 +37872,7 @@
       </c>
       <c r="AB84">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AC84">
         <v>2013</v>
@@ -37934,7 +37962,7 @@
       </c>
       <c r="AB85">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AC85">
         <v>2013</v>
@@ -42884,8 +42912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R79" workbookViewId="0">
-      <selection activeCell="Y89" sqref="Y89"/>
+    <sheetView tabSelected="1" topLeftCell="R70" workbookViewId="0">
+      <selection activeCell="AA96" sqref="AA96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -42969,16 +42997,6 @@
       <c r="Z1" t="s">
         <v>1</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <f>MOD((AA1+3),13)</f>
-        <v>4</v>
-      </c>
-      <c r="AC1">
-        <v>2007</v>
-      </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2">
@@ -43060,11 +43078,11 @@
         <v>2372.4143717279298</v>
       </c>
       <c r="AA2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <f t="shared" ref="AB2:AB65" si="0">MOD((AA2+3),13)</f>
-        <v>5</v>
+        <f>MOD((AA2+2),12)+1</f>
+        <v>4</v>
       </c>
       <c r="AC2">
         <v>2007</v>
@@ -43150,11 +43168,11 @@
         <v>1615.2057196350299</v>
       </c>
       <c r="AA3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB3">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" ref="AB3:AB66" si="0">MOD((AA3+2),12)+1</f>
+        <v>5</v>
       </c>
       <c r="AC3">
         <v>2007</v>
@@ -43240,11 +43258,11 @@
         <v>3392.1650276928299</v>
       </c>
       <c r="AA4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC4">
         <v>2007</v>
@@ -43330,11 +43348,11 @@
         <v>3703.1385985530201</v>
       </c>
       <c r="AA5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB5">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC5">
         <v>2007</v>
@@ -43420,11 +43438,11 @@
         <v>3828.8194668536798</v>
       </c>
       <c r="AA6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB6">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC6">
         <v>2007</v>
@@ -43510,11 +43528,11 @@
         <v>3988.4037531570698</v>
       </c>
       <c r="AA7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC7">
         <v>2007</v>
@@ -43600,11 +43618,11 @@
         <v>4082.9682928338402</v>
       </c>
       <c r="AA8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB8">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC8">
         <v>2007</v>
@@ -43690,11 +43708,11 @@
         <v>4126.9796182289601</v>
       </c>
       <c r="AA9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB9">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC9">
         <v>2007</v>
@@ -43780,14 +43798,14 @@
         <v>4846.3806481279598</v>
       </c>
       <c r="AA10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC10">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -43870,7 +43888,7 @@
         <v>4294.1120686079503</v>
       </c>
       <c r="AA11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB11">
         <f t="shared" si="0"/>
@@ -43960,7 +43978,7 @@
         <v>4269.4372780185304</v>
       </c>
       <c r="AA12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB12">
         <f t="shared" si="0"/>
@@ -44050,7 +44068,7 @@
         <v>4356.1671891973501</v>
       </c>
       <c r="AA13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB13">
         <f t="shared" si="0"/>
@@ -44140,7 +44158,7 @@
         <v>4350.8783684149803</v>
       </c>
       <c r="AA14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB14">
         <f t="shared" si="0"/>
@@ -44230,7 +44248,7 @@
         <v>4330.5943811677798</v>
       </c>
       <c r="AA15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB15">
         <f t="shared" si="0"/>
@@ -44320,7 +44338,7 @@
         <v>5092.27773955047</v>
       </c>
       <c r="AA16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB16">
         <f t="shared" si="0"/>
@@ -44410,7 +44428,7 @@
         <v>4412.8331783930198</v>
       </c>
       <c r="AA17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB17">
         <f t="shared" si="0"/>
@@ -44500,7 +44518,7 @@
         <v>4327.6277112528196</v>
       </c>
       <c r="AA18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB18">
         <f t="shared" si="0"/>
@@ -44590,7 +44608,7 @@
         <v>4432.9145428867996</v>
       </c>
       <c r="AA19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB19">
         <f t="shared" si="0"/>
@@ -44680,7 +44698,7 @@
         <v>4402.6298572019004</v>
       </c>
       <c r="AA20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB20">
         <f t="shared" si="0"/>
@@ -44770,7 +44788,7 @@
         <v>4385.8477982679397</v>
       </c>
       <c r="AA21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB21">
         <f t="shared" si="0"/>
@@ -44860,7 +44878,7 @@
         <v>5207.6560365565101</v>
       </c>
       <c r="AA22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB22">
         <f t="shared" si="0"/>
@@ -44950,14 +44968,14 @@
         <v>4448.74855522494</v>
       </c>
       <c r="AA23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -45040,11 +45058,11 @@
         <v>4455.7262475546104</v>
       </c>
       <c r="AA24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC24">
         <v>2009</v>
@@ -45130,11 +45148,11 @@
         <v>4562.96828452503</v>
       </c>
       <c r="AA25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC25">
         <v>2009</v>
@@ -45220,11 +45238,11 @@
         <v>4485.0847384717799</v>
       </c>
       <c r="AA26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC26">
         <v>2009</v>
@@ -45310,11 +45328,11 @@
         <v>4489.9715703688598</v>
       </c>
       <c r="AA27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB27">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC27">
         <v>2009</v>
@@ -45400,11 +45418,11 @@
         <v>5347.8093598364803</v>
       </c>
       <c r="AA28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC28">
         <v>2009</v>
@@ -45490,11 +45508,11 @@
         <v>4577.2328978524802</v>
       </c>
       <c r="AA29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB29">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC29">
         <v>2009</v>
@@ -45580,11 +45598,11 @@
         <v>4503.9963959861798</v>
       </c>
       <c r="AA30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB30">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC30">
         <v>2009</v>
@@ -45670,11 +45688,11 @@
         <v>4628.5480635065096</v>
       </c>
       <c r="AA31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB31">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC31">
         <v>2009</v>
@@ -45760,11 +45778,11 @@
         <v>4566.9153802969304</v>
       </c>
       <c r="AA32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB32">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC32">
         <v>2009</v>
@@ -45850,11 +45868,11 @@
         <v>4544.7624300443404</v>
       </c>
       <c r="AA33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB33">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC33">
         <v>2009</v>
@@ -45940,11 +45958,11 @@
         <v>5473.4657718258404</v>
       </c>
       <c r="AA34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB34">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC34">
         <v>2009</v>
@@ -46030,11 +46048,11 @@
         <v>4634.3493284061497</v>
       </c>
       <c r="AA35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB35">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AC35">
         <v>2009</v>
@@ -46120,14 +46138,14 @@
         <v>4604.50349767024</v>
       </c>
       <c r="AA36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC36">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -46210,11 +46228,11 @@
         <v>4772.7907610184902</v>
       </c>
       <c r="AA37">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB37">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC37">
         <v>2010</v>
@@ -46300,11 +46318,11 @@
         <v>4652.6832759663203</v>
       </c>
       <c r="AA38">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB38">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC38">
         <v>2010</v>
@@ -46390,11 +46408,11 @@
         <v>4685.1185860123196</v>
       </c>
       <c r="AA39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB39">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC39">
         <v>2010</v>
@@ -46480,11 +46498,11 @@
         <v>5586.0271507562402</v>
       </c>
       <c r="AA40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC40">
         <v>2010</v>
@@ -46570,11 +46588,11 @@
         <v>4714.9257937983803</v>
       </c>
       <c r="AA41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB41">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC41">
         <v>2010</v>
@@ -46660,11 +46678,11 @@
         <v>4728.9091925498396</v>
       </c>
       <c r="AA42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB42">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC42">
         <v>2010</v>
@@ -46750,11 +46768,11 @@
         <v>4810.6656452831203</v>
       </c>
       <c r="AA43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB43">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AC43">
         <v>2010</v>
@@ -46840,11 +46858,11 @@
         <v>4691.9073272920596</v>
       </c>
       <c r="AA44">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB44">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AC44">
         <v>2010</v>
@@ -46930,11 +46948,11 @@
         <v>4725.6603389032498</v>
       </c>
       <c r="AA45">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB45">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AC45">
         <v>2010</v>
@@ -47020,11 +47038,11 @@
         <v>5680.2865330916102</v>
       </c>
       <c r="AA46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB46">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AC46">
         <v>2010</v>
@@ -47110,11 +47128,11 @@
         <v>4808.8406034137397</v>
       </c>
       <c r="AA47">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB47">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AC47">
         <v>2010</v>
@@ -47200,11 +47218,11 @@
         <v>4768.38312974166</v>
       </c>
       <c r="AA48">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB48">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AC48">
         <v>2010</v>
@@ -47290,14 +47308,14 @@
         <v>5716.2439400102103</v>
       </c>
       <c r="AA49">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC49">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -47380,11 +47398,11 @@
         <v>4783.6119408990198</v>
       </c>
       <c r="AA50">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB50">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC50">
         <v>2011</v>
@@ -47470,11 +47488,11 @@
         <v>4789.42667298383</v>
       </c>
       <c r="AA51">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB51">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC51">
         <v>2011</v>
@@ -47560,11 +47578,11 @@
         <v>5733.3460880148596</v>
       </c>
       <c r="AA52">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB52">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC52">
         <v>2011</v>
@@ -47650,11 +47668,11 @@
         <v>4848.4925343332197</v>
       </c>
       <c r="AA53">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB53">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AC53">
         <v>2011</v>
@@ -47740,11 +47758,11 @@
         <v>4761.5332127172396</v>
       </c>
       <c r="AA54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB54">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AC54">
         <v>2011</v>
@@ -47830,11 +47848,11 @@
         <v>5745.6082725427405</v>
       </c>
       <c r="AA55">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB55">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AC55">
         <v>2011</v>
@@ -47920,11 +47938,11 @@
         <v>4870.6784478620302</v>
       </c>
       <c r="AA56">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB56">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AC56">
         <v>2011</v>
@@ -48010,11 +48028,11 @@
         <v>4855.0890254203996</v>
       </c>
       <c r="AA57">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB57">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AC57">
         <v>2011</v>
@@ -48100,11 +48118,11 @@
         <v>5851.77936182761</v>
       </c>
       <c r="AA58">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB58">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AC58">
         <v>2011</v>
@@ -48190,11 +48208,11 @@
         <v>4930.3506440718902</v>
       </c>
       <c r="AA59">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB59">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AC59">
         <v>2011</v>
@@ -48280,11 +48298,11 @@
         <v>4985.0560098975502</v>
       </c>
       <c r="AA60">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB60">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AC60">
         <v>2011</v>
@@ -48370,11 +48388,11 @@
         <v>5985.8447866474298</v>
       </c>
       <c r="AA61">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB61">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AC61">
         <v>2011</v>
@@ -48460,14 +48478,14 @@
         <v>4991.2239418927502</v>
       </c>
       <c r="AA62">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC62">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -48550,11 +48568,11 @@
         <v>5009.4280521976798</v>
       </c>
       <c r="AA63">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB63">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC63">
         <v>2012</v>
@@ -48640,11 +48658,11 @@
         <v>6018.0020810025599</v>
       </c>
       <c r="AA64">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB64">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AC64">
         <v>2012</v>
@@ -48730,11 +48748,11 @@
         <v>5087.7667241348599</v>
       </c>
       <c r="AA65">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB65">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AC65">
         <v>2012</v>
@@ -48820,11 +48838,11 @@
         <v>4910.42711337323</v>
       </c>
       <c r="AA66">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB66">
-        <f t="shared" ref="AB66:AB84" si="1">MOD((AA66+3),13)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="AC66">
         <v>2012</v>
@@ -48910,11 +48928,11 @@
         <v>5902.8616495034903</v>
       </c>
       <c r="AA67">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB67">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" ref="AB67:AB85" si="1">MOD((AA67+2),12)+1</f>
+        <v>9</v>
       </c>
       <c r="AC67">
         <v>2012</v>
@@ -49000,11 +49018,11 @@
         <v>4871.54042854612</v>
       </c>
       <c r="AA68">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB68">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AC68">
         <v>2012</v>
@@ -49090,11 +49108,11 @@
         <v>4861.1023329455002</v>
       </c>
       <c r="AA69">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB69">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AC69">
         <v>2012</v>
@@ -49180,11 +49198,11 @@
         <v>5945.8380657878697</v>
       </c>
       <c r="AA70">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB70">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AC70">
         <v>2012</v>
@@ -49270,11 +49288,11 @@
         <v>4917.1868193174696</v>
       </c>
       <c r="AA71">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB71">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AC71">
         <v>2012</v>
@@ -49360,11 +49378,11 @@
         <v>4858.48188160274</v>
       </c>
       <c r="AA72">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB72">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AC72">
         <v>2012</v>
@@ -49450,11 +49468,11 @@
         <v>5940.9668983751799</v>
       </c>
       <c r="AA73">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB73">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AC73">
         <v>2012</v>
@@ -49540,11 +49558,11 @@
         <v>4901.4146027017996</v>
       </c>
       <c r="AA74">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB74">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AC74">
         <v>2012</v>
@@ -49630,14 +49648,14 @@
         <v>4897.2488684075197</v>
       </c>
       <c r="AA75">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB75">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC75">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -49720,11 +49738,11 @@
         <v>5917.6121003428198</v>
       </c>
       <c r="AA76">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AB76">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AC76">
         <v>2013</v>
@@ -49810,11 +49828,11 @@
         <v>4910.7388096512996</v>
       </c>
       <c r="AA77">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB77">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AC77">
         <v>2013</v>
@@ -49900,11 +49918,11 @@
         <v>4746.9864110489098</v>
       </c>
       <c r="AA78">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB78">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AC78">
         <v>2013</v>
@@ -49990,11 +50008,11 @@
         <v>5811.2109308962399</v>
       </c>
       <c r="AA79">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB79">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AC79">
         <v>2013</v>
@@ -50080,11 +50098,11 @@
         <v>4768.2883073443099</v>
       </c>
       <c r="AA80">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB80">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC80">
         <v>2013</v>
@@ -50170,11 +50188,11 @@
         <v>4643.1556593178802</v>
       </c>
       <c r="AA81">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB81">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AC81">
         <v>2013</v>
@@ -50260,11 +50278,11 @@
         <v>5783.4821072979403</v>
       </c>
       <c r="AA82">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB82">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AC82">
         <v>2013</v>
@@ -50350,11 +50368,11 @@
         <v>4773.1107103368104</v>
       </c>
       <c r="AA83">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB83">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AC83">
         <v>2013</v>
@@ -50440,11 +50458,11 @@
         <v>4590.8106327453997</v>
       </c>
       <c r="AA84">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB84">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AC84">
         <v>2013</v>
@@ -50529,6 +50547,16 @@
       <c r="Z85">
         <v>5766.5703777359304</v>
       </c>
+      <c r="AA85">
+        <v>84</v>
+      </c>
+      <c r="AB85">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AC85">
+        <v>2013</v>
+      </c>
     </row>
     <row r="88" spans="1:29">
       <c r="A88" t="s">
@@ -50684,6 +50712,7 @@
         <v>10.807243513033301</v>
       </c>
       <c r="Z89">
+        <f>MOD((AA89+2),12)+1</f>
         <v>4</v>
       </c>
       <c r="AA89">
@@ -50767,6 +50796,7 @@
         <v>10.064830538303401</v>
       </c>
       <c r="Z90">
+        <f t="shared" ref="Z90:Z150" si="2">MOD((AA90+2),12)+1</f>
         <v>6</v>
       </c>
       <c r="AA90">
@@ -50850,6 +50880,7 @@
         <v>9.7198890482245908</v>
       </c>
       <c r="Z91">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="AA91">
@@ -50933,6 +50964,7 @@
         <v>10.1813306138574</v>
       </c>
       <c r="Z92">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AA92">
@@ -51016,6 +51048,7 @@
         <v>11.882539625393299</v>
       </c>
       <c r="Z93">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AA93">
@@ -51099,6 +51132,7 @@
         <v>12.508672037174801</v>
       </c>
       <c r="Z94">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AA94">
@@ -51182,6 +51216,7 @@
         <v>13.3995662129006</v>
       </c>
       <c r="Z95">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="AA95">
@@ -51265,7 +51300,8 @@
         <v>13.538490842902</v>
       </c>
       <c r="Z96">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AA96">
         <v>10</v>
@@ -51348,7 +51384,8 @@
         <v>13.785151467023301</v>
       </c>
       <c r="Z97">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AA97">
         <v>11</v>
@@ -51431,7 +51468,8 @@
         <v>13.8414410000992</v>
       </c>
       <c r="Z98">
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AA98">
         <v>12</v>
@@ -51514,7 +51552,8 @@
         <v>14.323988569274601</v>
       </c>
       <c r="Z99">
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="AA99">
         <v>13</v>
@@ -51597,7 +51636,8 @@
         <v>14.899847711262099</v>
       </c>
       <c r="Z100">
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="AA100">
         <v>15</v>
@@ -51680,7 +51720,8 @@
         <v>15.5464940866679</v>
       </c>
       <c r="Z101">
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="AA101">
         <v>16</v>
@@ -51763,7 +51804,8 @@
         <v>16.842510008419602</v>
       </c>
       <c r="Z102">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="AA102">
         <v>17</v>
@@ -51846,7 +51888,8 @@
         <v>18.811233238076699</v>
       </c>
       <c r="Z103">
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="AA103">
         <v>18</v>
@@ -51929,7 +51972,8 @@
         <v>20.415325846466001</v>
       </c>
       <c r="Z104">
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="AA104">
         <v>19</v>
@@ -52012,7 +52056,8 @@
         <v>22.750212327154198</v>
       </c>
       <c r="Z105">
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="AA105">
         <v>21</v>
@@ -52095,7 +52140,8 @@
         <v>23.596950519889599</v>
       </c>
       <c r="Z106">
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AA106">
         <v>22</v>
@@ -52178,7 +52224,8 @@
         <v>23.938405153761</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AA107">
         <v>23</v>
@@ -52261,7 +52308,8 @@
         <v>23.453355743864599</v>
       </c>
       <c r="Z108">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AA108">
         <v>24</v>
@@ -52344,7 +52392,8 @@
         <v>22.431754271487101</v>
       </c>
       <c r="Z109">
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="AA109">
         <v>25</v>
@@ -52427,7 +52476,8 @@
         <v>21.619942114792799</v>
       </c>
       <c r="Z110">
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="AA110">
         <v>27</v>
@@ -52510,7 +52560,8 @@
         <v>20.4606706077493</v>
       </c>
       <c r="Z111">
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="AA111">
         <v>28</v>
@@ -52593,7 +52644,8 @@
         <v>20.7001562067842</v>
       </c>
       <c r="Z112">
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="AA112">
         <v>29</v>
@@ -52676,7 +52728,8 @@
         <v>21.8770009350111</v>
       </c>
       <c r="Z113">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="AA113">
         <v>30</v>
@@ -52759,7 +52812,8 @@
         <v>23.406155152584599</v>
       </c>
       <c r="Z114">
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="AA114">
         <v>31</v>
@@ -52842,7 +52896,8 @@
         <v>25.092673824819201</v>
       </c>
       <c r="Z115">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="AA115">
         <v>33</v>
@@ -52925,7 +52980,8 @@
         <v>26.289223275323501</v>
       </c>
       <c r="Z116">
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AA116">
         <v>34</v>
@@ -53008,7 +53064,8 @@
         <v>26.713476682372299</v>
       </c>
       <c r="Z117">
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AA117">
         <v>35</v>
@@ -53091,7 +53148,8 @@
         <v>26.209156096599202</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AA118">
         <v>36</v>
@@ -53174,7 +53232,8 @@
         <v>25.236378563072201</v>
       </c>
       <c r="Z119">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="AA119">
         <v>37</v>
@@ -53257,7 +53316,8 @@
         <v>24.447902711199902</v>
       </c>
       <c r="Z120">
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="AA120">
         <v>39</v>
@@ -53340,7 +53400,8 @@
         <v>23.432758059126201</v>
       </c>
       <c r="Z121">
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="AA121">
         <v>40</v>
@@ -53423,7 +53484,8 @@
         <v>24.116850312099899</v>
       </c>
       <c r="Z122">
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="AA122">
         <v>41</v>
@@ -53506,7 +53568,8 @@
         <v>25.665643636734099</v>
       </c>
       <c r="Z123">
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="AA123">
         <v>42</v>
@@ -53589,7 +53652,8 @@
         <v>27.060233105422601</v>
       </c>
       <c r="Z124">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="AA124">
         <v>43</v>
@@ -53672,7 +53736,8 @@
         <v>28.578498295852199</v>
       </c>
       <c r="Z125">
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="AA125">
         <v>45</v>
@@ -53755,7 +53820,8 @@
         <v>28.429219000540002</v>
       </c>
       <c r="Z126">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AA126">
         <v>46</v>
@@ -53838,7 +53904,8 @@
         <v>28.7633907262551</v>
       </c>
       <c r="Z127">
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AA127">
         <v>48</v>
@@ -53921,7 +53988,8 @@
         <v>27.970224189713999</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="AA128">
         <v>49</v>
@@ -54004,7 +54072,8 @@
         <v>27.502158133497101</v>
       </c>
       <c r="Z129">
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="AA129">
         <v>51</v>
@@ -54087,7 +54156,8 @@
         <v>26.600399658649199</v>
       </c>
       <c r="Z130">
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="AA130">
         <v>52</v>
@@ -54170,7 +54240,8 @@
         <v>26.659335374174301</v>
       </c>
       <c r="Z131">
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="AA131">
         <v>54</v>
@@ -54253,7 +54324,8 @@
         <v>27.999019278930302</v>
       </c>
       <c r="Z132">
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="AA132">
         <v>55</v>
@@ -54336,7 +54408,8 @@
         <v>29.6835209653212</v>
       </c>
       <c r="Z133">
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="AA133">
         <v>57</v>
@@ -54419,7 +54492,8 @@
         <v>30.485317618033001</v>
       </c>
       <c r="Z134">
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AA134">
         <v>58</v>
@@ -54502,7 +54576,8 @@
         <v>31.501703638893499</v>
       </c>
       <c r="Z135">
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AA135">
         <v>60</v>
@@ -54585,7 +54660,8 @@
         <v>31.284121881674</v>
       </c>
       <c r="Z136">
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="AA136">
         <v>61</v>
@@ -54668,7 +54744,8 @@
         <v>30.441320401746601</v>
       </c>
       <c r="Z137">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="AA137">
         <v>63</v>
@@ -54751,7 +54828,8 @@
         <v>29.793112651029599</v>
       </c>
       <c r="Z138">
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="AA138">
         <v>64</v>
@@ -54834,7 +54912,8 @@
         <v>29.916360105461099</v>
       </c>
       <c r="Z139">
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="AA139">
         <v>66</v>
@@ -54917,7 +54996,8 @@
         <v>30.9414965631263</v>
       </c>
       <c r="Z140">
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="AA140">
         <v>67</v>
@@ -55000,7 +55080,8 @@
         <v>31.828997246111101</v>
       </c>
       <c r="Z141">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="AA141">
         <v>69</v>
@@ -55083,7 +55164,8 @@
         <v>31.629275097367199</v>
       </c>
       <c r="Z142">
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AA142">
         <v>70</v>
@@ -55166,7 +55248,8 @@
         <v>31.6773385323485</v>
       </c>
       <c r="Z143">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AA143">
         <v>72</v>
@@ -55249,7 +55332,8 @@
         <v>30.497350675282</v>
       </c>
       <c r="Z144">
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="AA144">
         <v>73</v>
@@ -55332,7 +55416,8 @@
         <v>29.732193995007002</v>
       </c>
       <c r="Z145">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="AA145">
         <v>75</v>
@@ -55415,7 +55500,8 @@
         <v>28.697634386552402</v>
       </c>
       <c r="Z146">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="AA146">
         <v>76</v>
@@ -55498,7 +55584,8 @@
         <v>29.383987280410501</v>
       </c>
       <c r="Z147">
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="AA147">
         <v>78</v>
@@ -55581,7 +55668,8 @@
         <v>29.4864399672066</v>
       </c>
       <c r="Z148">
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="AA148">
         <v>79</v>
@@ -55664,7 +55752,8 @@
         <v>30.208648722979401</v>
       </c>
       <c r="Z149">
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="AA149">
         <v>81</v>
@@ -55747,7 +55836,8 @@
         <v>30.299119034692499</v>
       </c>
       <c r="Z150">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AA150">
         <v>82</v>
@@ -55830,7 +55920,8 @@
         <v>30.223707992246801</v>
       </c>
       <c r="Z151">
-        <v>9</v>
+        <f>MOD((AA151+2),12)+1</f>
+        <v>3</v>
       </c>
       <c r="AA151">
         <v>84</v>
@@ -55838,6 +55929,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/extensions/icdm2016/doc-Experiments/RecapExperiments.xlsx
+++ b/extensions/icdm2016/doc-Experiments/RecapExperiments.xlsx
@@ -452,8 +452,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -534,7 +540,7 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="79">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -571,6 +577,9 @@
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -607,6 +616,9 @@
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -42912,8 +42924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R70" workbookViewId="0">
-      <selection activeCell="AA96" sqref="AA96"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
